--- a/piketimet/txt/ekzekutimi.xlsx
+++ b/piketimet/txt/ekzekutimi.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">def!$A$1:$K$350</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">def!$A$1:$K$340</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$K$159</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="172">
   <si>
     <t>Nr</t>
   </si>
@@ -558,6 +558,12 @@
   </si>
   <si>
     <t>K2-FS1</t>
+  </si>
+  <si>
+    <t>KAATI-1</t>
+  </si>
+  <si>
+    <t>K1-FS1</t>
   </si>
 </sst>
 </file>
@@ -1990,13 +1996,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>451310</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>16719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>685801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2051,7 +2057,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6569</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2975170" cy="298800"/>
@@ -2112,7 +2118,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>839686</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>43127</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2953749" cy="298800"/>
@@ -2173,7 +2179,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>606643</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>89338</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3298607" cy="298800"/>
@@ -2248,7 +2254,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>842998</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>105246</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3051603" cy="298800"/>
@@ -2309,13 +2315,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>451310</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>16719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>685801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2370,7 +2376,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6569</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2975170" cy="298800"/>
@@ -2431,7 +2437,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>839686</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>43127</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2953749" cy="298800"/>
@@ -2492,7 +2498,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>606643</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>89338</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3298607" cy="298800"/>
@@ -2567,7 +2573,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>842998</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>105246</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3051603" cy="298800"/>
@@ -2628,13 +2634,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>451310</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>16719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>685801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2689,7 +2695,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6569</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2975170" cy="298800"/>
@@ -2750,7 +2756,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>839686</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>43127</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2953749" cy="298800"/>
@@ -2811,7 +2817,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>606643</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>89338</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3298607" cy="298800"/>
@@ -2886,7 +2892,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>842998</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>105246</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3051603" cy="298800"/>
@@ -2947,13 +2953,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>451310</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>16719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>685801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3008,7 +3014,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6569</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2975170" cy="298800"/>
@@ -3069,7 +3075,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>839686</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>43127</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2953749" cy="298800"/>
@@ -3130,7 +3136,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>606643</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>89338</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3298607" cy="298800"/>
@@ -3205,7 +3211,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>842998</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>105246</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3051603" cy="298800"/>
@@ -4205,10 +4211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P350"/>
+  <dimension ref="A1:P340"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A148" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E154" sqref="C147:I159"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A91" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F100" sqref="C93:I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5903,22 +5909,22 @@
       <c r="I93" s="60"/>
     </row>
     <row r="94" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="46" t="s">
         <v>3</v>
       </c>
       <c r="I94" s="6" t="s">
@@ -5927,19 +5933,19 @@
     </row>
     <row r="95" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C95" s="7">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D95" s="8">
-        <v>7512610.8370000003</v>
+        <v>7511985.267</v>
       </c>
       <c r="E95" s="8">
-        <v>4692367.6560000004</v>
+        <v>4692348.76</v>
       </c>
       <c r="F95" s="8">
-        <v>628.87</v>
+        <v>625.05799999999999</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>11</v>
@@ -5950,19 +5956,19 @@
     </row>
     <row r="96" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C96" s="7">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="D96" s="8">
-        <v>7512599.7240000004</v>
+        <v>7512008.9100000001</v>
       </c>
       <c r="E96" s="8">
-        <v>4692356.7860000003</v>
+        <v>4692333.1710000001</v>
       </c>
       <c r="F96" s="8">
-        <v>628.87</v>
+        <v>625.05799999999999</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="H96" s="13" t="s">
         <v>11</v>
@@ -5973,19 +5979,19 @@
     </row>
     <row r="97" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C97" s="7">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D97" s="8">
-        <v>7512597.5710000005</v>
+        <v>7511998.9450000003</v>
       </c>
       <c r="E97" s="8">
-        <v>4692358.9649999999</v>
+        <v>4692318.0619999999</v>
       </c>
       <c r="F97" s="8">
-        <v>628.87</v>
+        <v>625.05799999999999</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="H97" s="13" t="s">
         <v>11</v>
@@ -5996,19 +6002,19 @@
     </row>
     <row r="98" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C98" s="7">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="D98" s="8">
-        <v>7512597.2759999996</v>
+        <v>7511986.585</v>
       </c>
       <c r="E98" s="8">
-        <v>4692358.6809999999</v>
+        <v>4692326.1859999998</v>
       </c>
       <c r="F98" s="8">
-        <v>628.87</v>
+        <v>625.05799999999999</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="H98" s="13" t="s">
         <v>11</v>
@@ -6019,19 +6025,19 @@
     </row>
     <row r="99" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C99" s="7">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="D99" s="8">
-        <v>7512594.8723999998</v>
+        <v>7511987.3260000004</v>
       </c>
       <c r="E99" s="8">
-        <v>4692361.0932</v>
+        <v>4692327.3509999998</v>
       </c>
       <c r="F99" s="8">
-        <v>628.85799999999995</v>
+        <v>625.05799999999999</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="H99" s="13" t="s">
         <v>11</v>
@@ -6042,19 +6048,19 @@
     </row>
     <row r="100" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C100" s="7">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="D100" s="8">
-        <v>7512595.1572000002</v>
+        <v>7511985.0750000002</v>
       </c>
       <c r="E100" s="8">
-        <v>4692361.3770000003</v>
+        <v>4692328.8569999998</v>
       </c>
       <c r="F100" s="8">
-        <v>628.85799999999995</v>
+        <v>625.05799999999999</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="H100" s="13" t="s">
         <v>11</v>
@@ -6065,19 +6071,19 @@
     </row>
     <row r="101" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C101" s="7">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="D101" s="8">
-        <v>7512592.8459999999</v>
+        <v>7511983.557</v>
       </c>
       <c r="E101" s="8">
-        <v>4692363.7180000003</v>
+        <v>4692327.0710000005</v>
       </c>
       <c r="F101" s="8">
-        <v>628.87</v>
+        <v>625.05799999999999</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="H101" s="13" t="s">
         <v>11</v>
@@ -6088,19 +6094,19 @@
     </row>
     <row r="102" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C102" s="7">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="D102" s="8">
-        <v>7512592.5609999998</v>
+        <v>7511983.3080000002</v>
       </c>
       <c r="E102" s="8">
-        <v>4692363.4390000002</v>
+        <v>4692327.3779999996</v>
       </c>
       <c r="F102" s="8">
-        <v>628.87</v>
+        <v>625.05799999999999</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="H102" s="13" t="s">
         <v>11</v>
@@ -6111,19 +6117,19 @@
     </row>
     <row r="103" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C103" s="7">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="D103" s="8">
-        <v>7512590.3119999999</v>
+        <v>7511974.9069999997</v>
       </c>
       <c r="E103" s="8">
-        <v>4692365.7189999996</v>
+        <v>4692320.1169999996</v>
       </c>
       <c r="F103" s="8">
-        <v>628.87</v>
+        <v>625.05799999999999</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="H103" s="13" t="s">
         <v>11</v>
@@ -6134,19 +6140,19 @@
     </row>
     <row r="104" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C104" s="7">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="D104" s="8">
-        <v>7512590.5880000005</v>
+        <v>7511965.0010000002</v>
       </c>
       <c r="E104" s="8">
-        <v>4692365.9840000002</v>
+        <v>4692332.4119999995</v>
       </c>
       <c r="F104" s="8">
-        <v>628.87</v>
+        <v>625.05799999999999</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="H104" s="13" t="s">
         <v>11</v>
@@ -6155,871 +6161,845 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C105" s="7">
-        <v>33</v>
-      </c>
-      <c r="D105" s="8">
-        <v>7512587.3949999996</v>
-      </c>
-      <c r="E105" s="8">
-        <v>4692369.1679999996</v>
-      </c>
-      <c r="F105" s="8">
-        <v>628.87</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I105" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C106" s="7">
-        <v>34</v>
-      </c>
-      <c r="D106" s="8">
-        <v>7512587.1090000002</v>
-      </c>
-      <c r="E106" s="8">
-        <v>4692368.8949999996</v>
-      </c>
-      <c r="F106" s="8">
-        <v>628.87</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I106" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C107" s="7">
-        <v>35</v>
-      </c>
-      <c r="D107" s="8">
-        <v>7512583.0729999999</v>
-      </c>
-      <c r="E107" s="8">
-        <v>4692372.9869999997</v>
-      </c>
-      <c r="F107" s="8">
-        <v>628.87</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I107" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C108" s="7">
-        <v>36</v>
-      </c>
-      <c r="D108" s="8">
-        <v>7512583.3339999998</v>
-      </c>
-      <c r="E108" s="8">
-        <v>4692373.3169999998</v>
-      </c>
-      <c r="F108" s="8">
-        <v>628.87</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I108" s="14" t="s">
-        <v>12</v>
+    <row r="105" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C105" s="15">
+        <v>70</v>
+      </c>
+      <c r="D105" s="16">
+        <v>7511990.2920000004</v>
+      </c>
+      <c r="E105" s="16">
+        <v>4692344.2630000003</v>
+      </c>
+      <c r="F105" s="16">
+        <v>625.05799999999999</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C106" s="19"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C107" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="62"/>
+      <c r="I107" s="63"/>
+    </row>
+    <row r="108" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C108" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108" s="44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C109" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D109" s="8">
-        <v>7512582.5070000002</v>
+        <v>7511987.3612000002</v>
       </c>
       <c r="E109" s="8">
-        <v>4692374.1459999997</v>
-      </c>
-      <c r="F109" s="8">
-        <v>628.87</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" s="14" t="s">
+        <v>4692327.3526999997</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="9">
+        <v>40</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="110" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C110" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D110" s="8">
-        <v>7512584.2699999996</v>
+        <v>7511985.1040000003</v>
       </c>
       <c r="E110" s="8">
-        <v>4692376.0455999998</v>
-      </c>
-      <c r="F110" s="8">
-        <v>628.85799999999995</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110" s="14" t="s">
+        <v>4692328.8388</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="9">
+        <v>40</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="111" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C111" s="7">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D111" s="8">
-        <v>7512584.6509999996</v>
+        <v>7511983.2961999997</v>
       </c>
       <c r="E111" s="8">
-        <v>4692375.6919999998</v>
-      </c>
-      <c r="F111" s="8">
-        <v>628.87</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H111" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I111" s="14" t="s">
+        <v>4692327.3868000004</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="9">
+        <v>40</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="112" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C112" s="7">
+        <v>4</v>
+      </c>
+      <c r="D112" s="8">
+        <v>7511983.5460999999</v>
+      </c>
+      <c r="E112" s="8">
+        <v>4692327.0756999999</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" s="9">
         <v>40</v>
       </c>
-      <c r="D112" s="8">
-        <v>7512592.7089999998</v>
-      </c>
-      <c r="E112" s="8">
-        <v>4692384.0460000001</v>
-      </c>
-      <c r="F112" s="8">
-        <v>628.87</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C113" s="11">
-        <v>41</v>
-      </c>
-      <c r="D113" s="12">
-        <v>7512593.5190000003</v>
-      </c>
-      <c r="E113" s="12">
-        <v>4692383.2120000003</v>
-      </c>
-      <c r="F113" s="12">
-        <v>628.87</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C114" s="11">
-        <v>42</v>
-      </c>
-      <c r="D114" s="12">
-        <v>7512594.4529999997</v>
-      </c>
-      <c r="E114" s="12">
-        <v>4692384.16</v>
-      </c>
-      <c r="F114" s="12">
-        <v>628.87</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I114" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C115" s="15">
-        <v>434</v>
-      </c>
-      <c r="D115" s="16">
-        <v>7512604.2369999997</v>
-      </c>
-      <c r="E115" s="16">
-        <v>4692373.1330000004</v>
-      </c>
-      <c r="F115" s="16">
-        <v>628.87</v>
-      </c>
-      <c r="G115" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H115" s="17" t="s">
+      <c r="H112" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C113" s="7">
+        <v>5</v>
+      </c>
+      <c r="D113" s="8">
+        <v>7511974.8530000001</v>
+      </c>
+      <c r="E113" s="8">
+        <v>4692320.0933999997</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="9">
+        <v>40</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C114" s="7">
+        <v>6</v>
+      </c>
+      <c r="D114" s="8">
+        <v>7511964.9589</v>
+      </c>
+      <c r="E114" s="8">
+        <v>4692332.4123</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" s="9">
+        <v>40</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C115" s="7">
+        <v>7</v>
+      </c>
+      <c r="D115" s="8">
+        <v>7511985.2692</v>
+      </c>
+      <c r="E115" s="8">
+        <v>4692348.7247000001</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" s="9">
+        <v>40</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C116" s="7">
+        <v>8</v>
+      </c>
+      <c r="D116" s="8">
+        <v>7512008.9060000004</v>
+      </c>
+      <c r="E116" s="8">
+        <v>4692333.1622000001</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" s="9">
+        <v>40</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C117" s="7">
+        <v>9</v>
+      </c>
+      <c r="D117" s="8">
+        <v>7511998.8991</v>
+      </c>
+      <c r="E117" s="8">
+        <v>4692317.9633999998</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="9">
+        <v>40</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C118" s="15">
+        <v>10</v>
+      </c>
+      <c r="D118" s="16">
+        <v>7511986.5366000002</v>
+      </c>
+      <c r="E118" s="16">
+        <v>4692326.1003</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" s="17">
+        <v>40</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C119" s="19"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C120" s="19"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C121" s="19"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C122" s="19"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="65"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123" s="68"/>
+      <c r="J123" s="71"/>
+      <c r="K123" s="72"/>
+    </row>
+    <row r="124" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="76"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="78">
+        <v>140</v>
+      </c>
+      <c r="F124" s="79"/>
+      <c r="G124" s="80"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="73"/>
+      <c r="K124" s="74"/>
+    </row>
+    <row r="125" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C125" s="19"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="47"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="47"/>
+      <c r="I126" s="47"/>
+      <c r="J126" s="47"/>
+      <c r="K126" s="47"/>
+    </row>
+    <row r="127" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="47"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="47"/>
+      <c r="I127" s="47"/>
+      <c r="J127" s="47"/>
+      <c r="K127" s="47"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="48"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="48"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="48"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="48"/>
+      <c r="I128" s="48"/>
+      <c r="J128" s="48"/>
+      <c r="K128" s="48"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="48"/>
+      <c r="B129" s="48"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="48"/>
+      <c r="E129" s="48"/>
+      <c r="F129" s="48"/>
+      <c r="G129" s="48"/>
+      <c r="H129" s="48"/>
+      <c r="I129" s="48"/>
+      <c r="J129" s="48"/>
+      <c r="K129" s="48"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="48"/>
+      <c r="B130" s="48"/>
+      <c r="C130" s="48"/>
+      <c r="D130" s="48"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="48"/>
+      <c r="I130" s="48"/>
+      <c r="J130" s="48"/>
+      <c r="K130" s="48"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="48"/>
+      <c r="B131" s="48"/>
+      <c r="C131" s="48"/>
+      <c r="D131" s="48"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="48"/>
+      <c r="I131" s="48"/>
+      <c r="J131" s="48"/>
+      <c r="K131" s="48"/>
+    </row>
+    <row r="132" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C133" s="49"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="51"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C134" s="52"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="53"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="53"/>
+      <c r="H134" s="53"/>
+      <c r="I134" s="54"/>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="55"/>
+      <c r="D135" s="56"/>
+      <c r="E135" s="56"/>
+      <c r="F135" s="56"/>
+      <c r="G135" s="56"/>
+      <c r="H135" s="56"/>
+      <c r="I135" s="57"/>
+    </row>
+    <row r="136" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C136" s="19"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D137" s="59"/>
+      <c r="E137" s="59"/>
+      <c r="F137" s="59"/>
+      <c r="G137" s="59"/>
+      <c r="H137" s="59"/>
+      <c r="I137" s="60"/>
+    </row>
+    <row r="138" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C138" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G138" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H138" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C139" s="7">
+        <v>72</v>
+      </c>
+      <c r="D139" s="8">
+        <v>7511985.267</v>
+      </c>
+      <c r="E139" s="8">
+        <v>4692348.76</v>
+      </c>
+      <c r="F139" s="8">
+        <v>627.99</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H139" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C140" s="7">
+        <v>73</v>
+      </c>
+      <c r="D140" s="8">
+        <v>7512008.9100000001</v>
+      </c>
+      <c r="E140" s="8">
+        <v>4692333.1710000001</v>
+      </c>
+      <c r="F140" s="8">
+        <v>627.99</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C141" s="7">
+        <v>74</v>
+      </c>
+      <c r="D141" s="8">
+        <v>7511998.9450000003</v>
+      </c>
+      <c r="E141" s="8">
+        <v>4692318.0619999999</v>
+      </c>
+      <c r="F141" s="8">
+        <v>627.99</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C142" s="7">
+        <v>75</v>
+      </c>
+      <c r="D142" s="8">
+        <v>7511986.585</v>
+      </c>
+      <c r="E142" s="8">
+        <v>4692326.1859999998</v>
+      </c>
+      <c r="F142" s="8">
+        <v>627.99</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I142" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C143" s="7">
+        <v>76</v>
+      </c>
+      <c r="D143" s="8">
+        <v>7511987.3260000004</v>
+      </c>
+      <c r="E143" s="8">
+        <v>4692327.3509999998</v>
+      </c>
+      <c r="F143" s="8">
+        <v>627.99</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C144" s="7">
+        <v>77</v>
+      </c>
+      <c r="D144" s="8">
+        <v>7511985.0750000002</v>
+      </c>
+      <c r="E144" s="8">
+        <v>4692328.8569999998</v>
+      </c>
+      <c r="F144" s="8">
+        <v>627.99</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C145" s="7">
+        <v>78</v>
+      </c>
+      <c r="D145" s="8">
+        <v>7511983.557</v>
+      </c>
+      <c r="E145" s="8">
+        <v>4692327.0710000005</v>
+      </c>
+      <c r="F145" s="8">
+        <v>627.99</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C146" s="7">
+        <v>79</v>
+      </c>
+      <c r="D146" s="8">
+        <v>7511983.3080000002</v>
+      </c>
+      <c r="E146" s="8">
+        <v>4692327.3779999996</v>
+      </c>
+      <c r="F146" s="8">
+        <v>627.99</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I146" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C147" s="7">
+        <v>80</v>
+      </c>
+      <c r="D147" s="8">
+        <v>7511974.9069999997</v>
+      </c>
+      <c r="E147" s="8">
+        <v>4692320.1169999996</v>
+      </c>
+      <c r="F147" s="8">
+        <v>627.99</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H147" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C148" s="7">
+        <v>81</v>
+      </c>
+      <c r="D148" s="8">
+        <v>7511965.0010000002</v>
+      </c>
+      <c r="E148" s="8">
+        <v>4692332.4119999995</v>
+      </c>
+      <c r="F148" s="8">
+        <v>627.99</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H148" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I148" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C149" s="15">
+        <v>71</v>
+      </c>
+      <c r="D149" s="16">
+        <v>7511987.2589999996</v>
+      </c>
+      <c r="E149" s="16">
+        <v>4692343.21</v>
+      </c>
+      <c r="F149" s="16">
+        <v>627.99</v>
+      </c>
+      <c r="G149" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="H149" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I115" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C116" s="19"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="3"/>
-    </row>
-    <row r="117" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C117" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="D117" s="62"/>
-      <c r="E117" s="62"/>
-      <c r="F117" s="62"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="62"/>
-      <c r="I117" s="63"/>
-    </row>
-    <row r="118" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C118" s="43" t="s">
+      <c r="I149" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C150" s="19"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="59"/>
+      <c r="H151" s="59"/>
+      <c r="I151" s="60"/>
+    </row>
+    <row r="152" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C152" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D118" s="41" t="s">
+      <c r="D152" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E118" s="41" t="s">
+      <c r="E152" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F118" s="41" t="s">
+      <c r="F152" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G118" s="41" t="s">
+      <c r="G152" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H118" s="41" t="s">
+      <c r="H152" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I118" s="44" t="s">
+      <c r="I152" s="6" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C119" s="7">
-        <v>1</v>
-      </c>
-      <c r="D119" s="8">
-        <v>7511987.3612000002</v>
-      </c>
-      <c r="E119" s="8">
-        <v>4692327.3526999997</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" s="9">
-        <v>40</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I119" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C120" s="7">
-        <v>2</v>
-      </c>
-      <c r="D120" s="8">
-        <v>7511985.1040000003</v>
-      </c>
-      <c r="E120" s="8">
-        <v>4692328.8388</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" s="9">
-        <v>40</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C121" s="7">
-        <v>3</v>
-      </c>
-      <c r="D121" s="8">
-        <v>7511983.2961999997</v>
-      </c>
-      <c r="E121" s="8">
-        <v>4692327.3868000004</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" s="9">
-        <v>40</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C122" s="7">
-        <v>4</v>
-      </c>
-      <c r="D122" s="8">
-        <v>7511983.5460999999</v>
-      </c>
-      <c r="E122" s="8">
-        <v>4692327.0756999999</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" s="9">
-        <v>40</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C123" s="7">
-        <v>5</v>
-      </c>
-      <c r="D123" s="8">
-        <v>7511974.8530000001</v>
-      </c>
-      <c r="E123" s="8">
-        <v>4692320.0933999997</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" s="9">
-        <v>40</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I123" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C124" s="7">
-        <v>6</v>
-      </c>
-      <c r="D124" s="8">
-        <v>7511964.9589</v>
-      </c>
-      <c r="E124" s="8">
-        <v>4692332.4123</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" s="9">
-        <v>40</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I124" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C125" s="7">
-        <v>7</v>
-      </c>
-      <c r="D125" s="8">
-        <v>7511985.2692</v>
-      </c>
-      <c r="E125" s="8">
-        <v>4692348.7247000001</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" s="9">
-        <v>40</v>
-      </c>
-      <c r="H125" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I125" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C126" s="7">
-        <v>8</v>
-      </c>
-      <c r="D126" s="8">
-        <v>7512008.9060000004</v>
-      </c>
-      <c r="E126" s="8">
-        <v>4692333.1622000001</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" s="9">
-        <v>40</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I126" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C127" s="7">
-        <v>9</v>
-      </c>
-      <c r="D127" s="8">
-        <v>7511998.8991</v>
-      </c>
-      <c r="E127" s="8">
-        <v>4692317.9633999998</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" s="9">
-        <v>40</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I127" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C128" s="15">
-        <v>10</v>
-      </c>
-      <c r="D128" s="16">
-        <v>7511986.5366000002</v>
-      </c>
-      <c r="E128" s="16">
-        <v>4692326.1003</v>
-      </c>
-      <c r="F128" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" s="17">
-        <v>40</v>
-      </c>
-      <c r="H128" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I128" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C129" s="19"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="3"/>
-    </row>
-    <row r="130" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C130" s="19"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="3"/>
-    </row>
-    <row r="131" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C131" s="19"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="3"/>
-    </row>
-    <row r="132" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C132" s="19"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="3"/>
-    </row>
-    <row r="133" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F133" s="65"/>
-      <c r="G133" s="66"/>
-      <c r="H133" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="I133" s="68"/>
-      <c r="J133" s="71"/>
-      <c r="K133" s="72"/>
-    </row>
-    <row r="134" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" s="76"/>
-      <c r="C134" s="76"/>
-      <c r="D134" s="77"/>
-      <c r="E134" s="78">
-        <v>140</v>
-      </c>
-      <c r="F134" s="79"/>
-      <c r="G134" s="80"/>
-      <c r="H134" s="69"/>
-      <c r="I134" s="70"/>
-      <c r="J134" s="73"/>
-      <c r="K134" s="74"/>
-    </row>
-    <row r="135" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C135" s="19"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="3"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
-      <c r="C136" s="47"/>
-      <c r="D136" s="47"/>
-      <c r="E136" s="47"/>
-      <c r="F136" s="47"/>
-      <c r="G136" s="47"/>
-      <c r="H136" s="47"/>
-      <c r="I136" s="47"/>
-      <c r="J136" s="47"/>
-      <c r="K136" s="47"/>
-    </row>
-    <row r="137" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47"/>
-      <c r="C137" s="47"/>
-      <c r="D137" s="47"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47"/>
-      <c r="I137" s="47"/>
-      <c r="J137" s="47"/>
-      <c r="K137" s="47"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B138" s="48"/>
-      <c r="C138" s="48"/>
-      <c r="D138" s="48"/>
-      <c r="E138" s="48"/>
-      <c r="F138" s="48"/>
-      <c r="G138" s="48"/>
-      <c r="H138" s="48"/>
-      <c r="I138" s="48"/>
-      <c r="J138" s="48"/>
-      <c r="K138" s="48"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
-      <c r="B139" s="48"/>
-      <c r="C139" s="48"/>
-      <c r="D139" s="48"/>
-      <c r="E139" s="48"/>
-      <c r="F139" s="48"/>
-      <c r="G139" s="48"/>
-      <c r="H139" s="48"/>
-      <c r="I139" s="48"/>
-      <c r="J139" s="48"/>
-      <c r="K139" s="48"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
-      <c r="B140" s="48"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="48"/>
-      <c r="E140" s="48"/>
-      <c r="F140" s="48"/>
-      <c r="G140" s="48"/>
-      <c r="H140" s="48"/>
-      <c r="I140" s="48"/>
-      <c r="J140" s="48"/>
-      <c r="K140" s="48"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
-      <c r="B141" s="48"/>
-      <c r="C141" s="48"/>
-      <c r="D141" s="48"/>
-      <c r="E141" s="48"/>
-      <c r="F141" s="48"/>
-      <c r="G141" s="48"/>
-      <c r="H141" s="48"/>
-      <c r="I141" s="48"/>
-      <c r="J141" s="48"/>
-      <c r="K141" s="48"/>
-    </row>
-    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C143" s="49"/>
-      <c r="D143" s="50"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="50"/>
-      <c r="G143" s="50"/>
-      <c r="H143" s="50"/>
-      <c r="I143" s="51"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C144" s="52"/>
-      <c r="D144" s="53"/>
-      <c r="E144" s="53"/>
-      <c r="F144" s="53"/>
-      <c r="G144" s="53"/>
-      <c r="H144" s="53"/>
-      <c r="I144" s="54"/>
-    </row>
-    <row r="145" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="55"/>
-      <c r="D145" s="56"/>
-      <c r="E145" s="56"/>
-      <c r="F145" s="56"/>
-      <c r="G145" s="56"/>
-      <c r="H145" s="56"/>
-      <c r="I145" s="57"/>
-    </row>
-    <row r="146" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C146" s="19"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="3"/>
-    </row>
-    <row r="147" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="D147" s="59"/>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="59"/>
-      <c r="H147" s="59"/>
-      <c r="I147" s="60"/>
-    </row>
-    <row r="148" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C148" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E148" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="F148" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G148" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="H148" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="I148" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C149" s="7">
-        <v>72</v>
-      </c>
-      <c r="D149" s="8">
-        <v>7511985.267</v>
-      </c>
-      <c r="E149" s="8">
-        <v>4692348.76</v>
-      </c>
-      <c r="F149" s="8">
-        <v>627.99</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H149" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I149" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C150" s="7">
-        <v>73</v>
-      </c>
-      <c r="D150" s="8">
-        <v>7512008.9100000001</v>
-      </c>
-      <c r="E150" s="8">
-        <v>4692333.1710000001</v>
-      </c>
-      <c r="F150" s="8">
-        <v>627.99</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H150" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I150" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C151" s="7">
-        <v>74</v>
-      </c>
-      <c r="D151" s="8">
-        <v>7511998.9450000003</v>
-      </c>
-      <c r="E151" s="8">
-        <v>4692318.0619999999</v>
-      </c>
-      <c r="F151" s="8">
-        <v>627.99</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H151" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I151" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C152" s="7">
-        <v>75</v>
-      </c>
-      <c r="D152" s="8">
-        <v>7511986.585</v>
-      </c>
-      <c r="E152" s="8">
-        <v>4692326.1859999998</v>
-      </c>
-      <c r="F152" s="8">
-        <v>627.99</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H152" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I152" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="153" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C153" s="7">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D153" s="8">
-        <v>7511987.3260000004</v>
+        <v>7511964.9749999996</v>
       </c>
       <c r="E153" s="8">
-        <v>4692327.3509999998</v>
+        <v>4692332.3789999997</v>
       </c>
       <c r="F153" s="8">
-        <v>627.99</v>
+        <v>630.90800000000002</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H153" s="13" t="s">
         <v>11</v>
@@ -7030,19 +7010,19 @@
     </row>
     <row r="154" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C154" s="7">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D154" s="8">
-        <v>7511985.0750000002</v>
+        <v>7511974.8810000001</v>
       </c>
       <c r="E154" s="8">
-        <v>4692328.8569999998</v>
+        <v>4692320.1009999998</v>
       </c>
       <c r="F154" s="8">
-        <v>627.99</v>
+        <v>630.90800000000002</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H154" s="13" t="s">
         <v>11</v>
@@ -7053,19 +7033,19 @@
     </row>
     <row r="155" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C155" s="7">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D155" s="8">
-        <v>7511983.557</v>
+        <v>7511983.5539999995</v>
       </c>
       <c r="E155" s="8">
-        <v>4692327.0710000005</v>
+        <v>4692327.074</v>
       </c>
       <c r="F155" s="8">
-        <v>627.99</v>
+        <v>630.90800000000002</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H155" s="13" t="s">
         <v>11</v>
@@ -7076,19 +7056,19 @@
     </row>
     <row r="156" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C156" s="7">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D156" s="8">
-        <v>7511983.3080000002</v>
+        <v>7511983.3159999996</v>
       </c>
       <c r="E156" s="8">
-        <v>4692327.3779999996</v>
+        <v>4692327.3600000003</v>
       </c>
       <c r="F156" s="8">
-        <v>627.99</v>
+        <v>630.90800000000002</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H156" s="13" t="s">
         <v>11</v>
@@ -7099,19 +7079,19 @@
     </row>
     <row r="157" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C157" s="7">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D157" s="8">
-        <v>7511974.9069999997</v>
+        <v>7511985.074</v>
       </c>
       <c r="E157" s="8">
-        <v>4692320.1169999996</v>
+        <v>4692328.8080000002</v>
       </c>
       <c r="F157" s="8">
-        <v>627.99</v>
+        <v>630.90800000000002</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H157" s="13" t="s">
         <v>11</v>
@@ -7122,19 +7102,19 @@
     </row>
     <row r="158" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C158" s="7">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D158" s="8">
-        <v>7511965.0010000002</v>
+        <v>7511987.3810000001</v>
       </c>
       <c r="E158" s="8">
-        <v>4692332.4119999995</v>
+        <v>4692327.3880000003</v>
       </c>
       <c r="F158" s="8">
-        <v>627.99</v>
+        <v>630.90800000000002</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H158" s="13" t="s">
         <v>11</v>
@@ -7143,691 +7123,691 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C159" s="15">
-        <v>71</v>
-      </c>
-      <c r="D159" s="16">
-        <v>7511987.2589999996</v>
-      </c>
-      <c r="E159" s="16">
-        <v>4692343.21</v>
-      </c>
-      <c r="F159" s="16">
-        <v>627.99</v>
-      </c>
-      <c r="G159" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="H159" s="17" t="s">
+    <row r="159" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C159" s="7">
+        <v>93</v>
+      </c>
+      <c r="D159" s="8">
+        <v>7511986.5880000005</v>
+      </c>
+      <c r="E159" s="8">
+        <v>4692326.1840000004</v>
+      </c>
+      <c r="F159" s="8">
+        <v>630.90800000000002</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H159" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I159" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C160" s="7">
+        <v>94</v>
+      </c>
+      <c r="D160" s="8">
+        <v>7511998.9680000003</v>
+      </c>
+      <c r="E160" s="8">
+        <v>4692318.0350000001</v>
+      </c>
+      <c r="F160" s="8">
+        <v>630.90800000000002</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H160" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I160" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C161" s="7">
+        <v>96</v>
+      </c>
+      <c r="D161" s="8">
+        <v>7512008.9100000001</v>
+      </c>
+      <c r="E161" s="8">
+        <v>4692333.1710000001</v>
+      </c>
+      <c r="F161" s="8">
+        <v>630.90800000000002</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H161" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I161" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C162" s="7">
+        <v>97</v>
+      </c>
+      <c r="D162" s="8">
+        <v>7511985.2810000004</v>
+      </c>
+      <c r="E162" s="8">
+        <v>4692348.733</v>
+      </c>
+      <c r="F162" s="8">
+        <v>630.90800000000002</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H162" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I162" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C163" s="15">
+        <v>86</v>
+      </c>
+      <c r="D163" s="16">
+        <v>7511991.5800000001</v>
+      </c>
+      <c r="E163" s="16">
+        <v>4692343.6629999997</v>
+      </c>
+      <c r="F163" s="16">
+        <v>630.90800000000002</v>
+      </c>
+      <c r="G163" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H163" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I159" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C160" s="19"/>
-      <c r="D160" s="20"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="3"/>
-    </row>
-    <row r="161" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D161" s="59"/>
-      <c r="E161" s="59"/>
-      <c r="F161" s="59"/>
-      <c r="G161" s="59"/>
-      <c r="H161" s="59"/>
-      <c r="I161" s="60"/>
-    </row>
-    <row r="162" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C162" s="45" t="s">
+      <c r="I163" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C164" s="19"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="3"/>
+    </row>
+    <row r="165" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C165" s="19"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="3"/>
+    </row>
+    <row r="166" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C166" s="19"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="3"/>
+    </row>
+    <row r="167" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C167" s="19"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="3"/>
+    </row>
+    <row r="168" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C168" s="19"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="3"/>
+    </row>
+    <row r="169" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C169" s="19"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="3"/>
+    </row>
+    <row r="170" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C170" s="19"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="3"/>
+    </row>
+    <row r="171" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" s="65"/>
+      <c r="G171" s="66"/>
+      <c r="H171" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I171" s="68"/>
+      <c r="J171" s="71"/>
+      <c r="K171" s="72"/>
+    </row>
+    <row r="172" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="76"/>
+      <c r="C172" s="76"/>
+      <c r="D172" s="77"/>
+      <c r="E172" s="78">
+        <v>140</v>
+      </c>
+      <c r="F172" s="79"/>
+      <c r="G172" s="80"/>
+      <c r="H172" s="69"/>
+      <c r="I172" s="70"/>
+      <c r="J172" s="73"/>
+      <c r="K172" s="74"/>
+    </row>
+    <row r="173" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C173" s="19"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="3"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="47"/>
+      <c r="B174" s="47"/>
+      <c r="C174" s="47"/>
+      <c r="D174" s="47"/>
+      <c r="E174" s="47"/>
+      <c r="F174" s="47"/>
+      <c r="G174" s="47"/>
+      <c r="H174" s="47"/>
+      <c r="I174" s="47"/>
+      <c r="J174" s="47"/>
+      <c r="K174" s="47"/>
+    </row>
+    <row r="175" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="47"/>
+      <c r="B175" s="47"/>
+      <c r="C175" s="47"/>
+      <c r="D175" s="47"/>
+      <c r="E175" s="47"/>
+      <c r="F175" s="47"/>
+      <c r="G175" s="47"/>
+      <c r="H175" s="47"/>
+      <c r="I175" s="47"/>
+      <c r="J175" s="47"/>
+      <c r="K175" s="47"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="48"/>
+      <c r="C176" s="48"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="48"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="48"/>
+      <c r="I176" s="48"/>
+      <c r="J176" s="48"/>
+      <c r="K176" s="48"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="48"/>
+      <c r="B177" s="48"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="48"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="48"/>
+      <c r="G177" s="48"/>
+      <c r="H177" s="48"/>
+      <c r="I177" s="48"/>
+      <c r="J177" s="48"/>
+      <c r="K177" s="48"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="48"/>
+      <c r="B178" s="48"/>
+      <c r="C178" s="48"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="48"/>
+      <c r="G178" s="48"/>
+      <c r="H178" s="48"/>
+      <c r="I178" s="48"/>
+      <c r="J178" s="48"/>
+      <c r="K178" s="48"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="48"/>
+      <c r="B179" s="48"/>
+      <c r="C179" s="48"/>
+      <c r="D179" s="48"/>
+      <c r="E179" s="48"/>
+      <c r="F179" s="48"/>
+      <c r="G179" s="48"/>
+      <c r="H179" s="48"/>
+      <c r="I179" s="48"/>
+      <c r="J179" s="48"/>
+      <c r="K179" s="48"/>
+    </row>
+    <row r="180" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C181" s="49"/>
+      <c r="D181" s="50"/>
+      <c r="E181" s="50"/>
+      <c r="F181" s="50"/>
+      <c r="G181" s="50"/>
+      <c r="H181" s="50"/>
+      <c r="I181" s="51"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C182" s="52"/>
+      <c r="D182" s="53"/>
+      <c r="E182" s="53"/>
+      <c r="F182" s="53"/>
+      <c r="G182" s="53"/>
+      <c r="H182" s="53"/>
+      <c r="I182" s="54"/>
+    </row>
+    <row r="183" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C183" s="55"/>
+      <c r="D183" s="56"/>
+      <c r="E183" s="56"/>
+      <c r="F183" s="56"/>
+      <c r="G183" s="56"/>
+      <c r="H183" s="56"/>
+      <c r="I183" s="57"/>
+    </row>
+    <row r="184" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C184" s="19"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="3"/>
+    </row>
+    <row r="185" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C185" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D185" s="59"/>
+      <c r="E185" s="59"/>
+      <c r="F185" s="59"/>
+      <c r="G185" s="59"/>
+      <c r="H185" s="59"/>
+      <c r="I185" s="60"/>
+    </row>
+    <row r="186" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C186" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D162" s="46" t="s">
+      <c r="D186" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E162" s="46" t="s">
+      <c r="E186" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F162" s="46" t="s">
+      <c r="F186" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G162" s="46" t="s">
+      <c r="G186" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H162" s="46" t="s">
+      <c r="H186" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I162" s="6" t="s">
+      <c r="I186" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C163" s="7">
-        <v>87</v>
-      </c>
-      <c r="D163" s="8">
-        <v>7511964.9749999996</v>
-      </c>
-      <c r="E163" s="8">
-        <v>4692332.3789999997</v>
-      </c>
-      <c r="F163" s="8">
-        <v>630.90800000000002</v>
-      </c>
-      <c r="G163" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H163" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I163" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C164" s="7">
-        <v>88</v>
-      </c>
-      <c r="D164" s="8">
-        <v>7511974.8810000001</v>
-      </c>
-      <c r="E164" s="8">
-        <v>4692320.1009999998</v>
-      </c>
-      <c r="F164" s="8">
-        <v>630.90800000000002</v>
-      </c>
-      <c r="G164" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H164" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I164" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C165" s="7">
-        <v>89</v>
-      </c>
-      <c r="D165" s="8">
-        <v>7511983.5539999995</v>
-      </c>
-      <c r="E165" s="8">
-        <v>4692327.074</v>
-      </c>
-      <c r="F165" s="8">
-        <v>630.90800000000002</v>
-      </c>
-      <c r="G165" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H165" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I165" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C166" s="7">
-        <v>90</v>
-      </c>
-      <c r="D166" s="8">
-        <v>7511983.3159999996</v>
-      </c>
-      <c r="E166" s="8">
-        <v>4692327.3600000003</v>
-      </c>
-      <c r="F166" s="8">
-        <v>630.90800000000002</v>
-      </c>
-      <c r="G166" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H166" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I166" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C167" s="7">
-        <v>91</v>
-      </c>
-      <c r="D167" s="8">
-        <v>7511985.074</v>
-      </c>
-      <c r="E167" s="8">
-        <v>4692328.8080000002</v>
-      </c>
-      <c r="F167" s="8">
-        <v>630.90800000000002</v>
-      </c>
-      <c r="G167" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H167" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I167" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C168" s="7">
-        <v>92</v>
-      </c>
-      <c r="D168" s="8">
-        <v>7511987.3810000001</v>
-      </c>
-      <c r="E168" s="8">
-        <v>4692327.3880000003</v>
-      </c>
-      <c r="F168" s="8">
-        <v>630.90800000000002</v>
-      </c>
-      <c r="G168" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H168" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I168" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C169" s="7">
-        <v>93</v>
-      </c>
-      <c r="D169" s="8">
-        <v>7511986.5880000005</v>
-      </c>
-      <c r="E169" s="8">
-        <v>4692326.1840000004</v>
-      </c>
-      <c r="F169" s="8">
-        <v>630.90800000000002</v>
-      </c>
-      <c r="G169" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H169" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I169" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C170" s="7">
-        <v>94</v>
-      </c>
-      <c r="D170" s="8">
-        <v>7511998.9680000003</v>
-      </c>
-      <c r="E170" s="8">
-        <v>4692318.0350000001</v>
-      </c>
-      <c r="F170" s="8">
-        <v>630.90800000000002</v>
-      </c>
-      <c r="G170" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H170" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I170" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C171" s="7">
-        <v>96</v>
-      </c>
-      <c r="D171" s="8">
-        <v>7512008.9100000001</v>
-      </c>
-      <c r="E171" s="8">
-        <v>4692333.1710000001</v>
-      </c>
-      <c r="F171" s="8">
-        <v>630.90800000000002</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H171" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I171" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C172" s="7">
-        <v>97</v>
-      </c>
-      <c r="D172" s="8">
-        <v>7511985.2810000004</v>
-      </c>
-      <c r="E172" s="8">
-        <v>4692348.733</v>
-      </c>
-      <c r="F172" s="8">
-        <v>630.90800000000002</v>
-      </c>
-      <c r="G172" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H172" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I172" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C173" s="15">
-        <v>86</v>
-      </c>
-      <c r="D173" s="16">
-        <v>7511991.5800000001</v>
-      </c>
-      <c r="E173" s="16">
-        <v>4692343.6629999997</v>
-      </c>
-      <c r="F173" s="16">
-        <v>630.90800000000002</v>
-      </c>
-      <c r="G173" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="H173" s="17" t="s">
+    <row r="187" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C187" s="7">
+        <v>99</v>
+      </c>
+      <c r="D187" s="8">
+        <v>7511964.9790000003</v>
+      </c>
+      <c r="E187" s="8">
+        <v>4692332.41</v>
+      </c>
+      <c r="F187" s="8">
+        <v>633.84799999999996</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H187" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I187" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C188" s="7">
+        <v>100</v>
+      </c>
+      <c r="D188" s="8">
+        <v>7511974.8899999997</v>
+      </c>
+      <c r="E188" s="8">
+        <v>4692320.0870000003</v>
+      </c>
+      <c r="F188" s="8">
+        <v>633.84799999999996</v>
+      </c>
+      <c r="G188" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H188" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I188" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C189" s="7">
+        <v>101</v>
+      </c>
+      <c r="D189" s="8">
+        <v>7511983.5310000004</v>
+      </c>
+      <c r="E189" s="8">
+        <v>4692327.0729999999</v>
+      </c>
+      <c r="F189" s="8">
+        <v>633.84799999999996</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H189" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I189" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C190" s="7">
+        <v>102</v>
+      </c>
+      <c r="D190" s="8">
+        <v>7511983.2960000001</v>
+      </c>
+      <c r="E190" s="8">
+        <v>4692327.3760000002</v>
+      </c>
+      <c r="F190" s="8">
+        <v>633.84799999999996</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H190" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I190" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C191" s="7">
+        <v>103</v>
+      </c>
+      <c r="D191" s="8">
+        <v>7511985.0760000004</v>
+      </c>
+      <c r="E191" s="8">
+        <v>4692328.8140000002</v>
+      </c>
+      <c r="F191" s="8">
+        <v>633.84799999999996</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H191" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I191" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C192" s="7">
+        <v>104</v>
+      </c>
+      <c r="D192" s="8">
+        <v>7511987.352</v>
+      </c>
+      <c r="E192" s="8">
+        <v>4692327.3890000004</v>
+      </c>
+      <c r="F192" s="8">
+        <v>633.84799999999996</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H192" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I192" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C193" s="7">
+        <v>105</v>
+      </c>
+      <c r="D193" s="8">
+        <v>7511986.5449999999</v>
+      </c>
+      <c r="E193" s="8">
+        <v>4692326.1469999999</v>
+      </c>
+      <c r="F193" s="8">
+        <v>633.84799999999996</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H193" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I193" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C194" s="7">
+        <v>106</v>
+      </c>
+      <c r="D194" s="8">
+        <v>7511998.9709999999</v>
+      </c>
+      <c r="E194" s="8">
+        <v>4692318.0420000004</v>
+      </c>
+      <c r="F194" s="8">
+        <v>633.84799999999996</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H194" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I194" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C195" s="7">
+        <v>107</v>
+      </c>
+      <c r="D195" s="8">
+        <v>7512008.915</v>
+      </c>
+      <c r="E195" s="8">
+        <v>4692333.1780000003</v>
+      </c>
+      <c r="F195" s="8">
+        <v>633.84799999999996</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H195" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I195" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C196" s="7">
+        <v>108</v>
+      </c>
+      <c r="D196" s="8">
+        <v>7511985.2649999997</v>
+      </c>
+      <c r="E196" s="8">
+        <v>4692348.7419999996</v>
+      </c>
+      <c r="F196" s="8">
+        <v>633.84799999999996</v>
+      </c>
+      <c r="G196" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H196" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I196" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C197" s="15">
+        <v>98</v>
+      </c>
+      <c r="D197" s="16">
+        <v>7511992.1310000001</v>
+      </c>
+      <c r="E197" s="16">
+        <v>4692342.8039999995</v>
+      </c>
+      <c r="F197" s="16">
+        <v>633.84799999999996</v>
+      </c>
+      <c r="G197" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H197" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I173" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C174" s="19"/>
-      <c r="D174" s="20"/>
-      <c r="E174" s="20"/>
-      <c r="F174" s="20"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="19"/>
-      <c r="I174" s="3"/>
-    </row>
-    <row r="175" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C175" s="19"/>
-      <c r="D175" s="20"/>
-      <c r="E175" s="20"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="19"/>
-      <c r="I175" s="3"/>
-    </row>
-    <row r="176" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C176" s="19"/>
-      <c r="D176" s="20"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="19"/>
-      <c r="I176" s="3"/>
-    </row>
-    <row r="177" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C177" s="19"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="3"/>
-    </row>
-    <row r="178" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C178" s="19"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="3"/>
-    </row>
-    <row r="179" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C179" s="19"/>
-      <c r="D179" s="20"/>
-      <c r="E179" s="20"/>
-      <c r="F179" s="20"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="3"/>
-    </row>
-    <row r="180" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C180" s="19"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="3"/>
-    </row>
-    <row r="181" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" s="65"/>
-      <c r="G181" s="66"/>
-      <c r="H181" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="I181" s="68"/>
-      <c r="J181" s="71"/>
-      <c r="K181" s="72"/>
-    </row>
-    <row r="182" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="B182" s="76"/>
-      <c r="C182" s="76"/>
-      <c r="D182" s="77"/>
-      <c r="E182" s="78">
-        <v>140</v>
-      </c>
-      <c r="F182" s="79"/>
-      <c r="G182" s="80"/>
-      <c r="H182" s="69"/>
-      <c r="I182" s="70"/>
-      <c r="J182" s="73"/>
-      <c r="K182" s="74"/>
-    </row>
-    <row r="183" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C183" s="19"/>
-      <c r="D183" s="20"/>
-      <c r="E183" s="20"/>
-      <c r="F183" s="20"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="3"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="47"/>
-      <c r="B184" s="47"/>
-      <c r="C184" s="47"/>
-      <c r="D184" s="47"/>
-      <c r="E184" s="47"/>
-      <c r="F184" s="47"/>
-      <c r="G184" s="47"/>
-      <c r="H184" s="47"/>
-      <c r="I184" s="47"/>
-      <c r="J184" s="47"/>
-      <c r="K184" s="47"/>
-    </row>
-    <row r="185" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="47"/>
-      <c r="B185" s="47"/>
-      <c r="C185" s="47"/>
-      <c r="D185" s="47"/>
-      <c r="E185" s="47"/>
-      <c r="F185" s="47"/>
-      <c r="G185" s="47"/>
-      <c r="H185" s="47"/>
-      <c r="I185" s="47"/>
-      <c r="J185" s="47"/>
-      <c r="K185" s="47"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B186" s="48"/>
-      <c r="C186" s="48"/>
-      <c r="D186" s="48"/>
-      <c r="E186" s="48"/>
-      <c r="F186" s="48"/>
-      <c r="G186" s="48"/>
-      <c r="H186" s="48"/>
-      <c r="I186" s="48"/>
-      <c r="J186" s="48"/>
-      <c r="K186" s="48"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="48"/>
-      <c r="B187" s="48"/>
-      <c r="C187" s="48"/>
-      <c r="D187" s="48"/>
-      <c r="E187" s="48"/>
-      <c r="F187" s="48"/>
-      <c r="G187" s="48"/>
-      <c r="H187" s="48"/>
-      <c r="I187" s="48"/>
-      <c r="J187" s="48"/>
-      <c r="K187" s="48"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="48"/>
-      <c r="B188" s="48"/>
-      <c r="C188" s="48"/>
-      <c r="D188" s="48"/>
-      <c r="E188" s="48"/>
-      <c r="F188" s="48"/>
-      <c r="G188" s="48"/>
-      <c r="H188" s="48"/>
-      <c r="I188" s="48"/>
-      <c r="J188" s="48"/>
-      <c r="K188" s="48"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="48"/>
-      <c r="B189" s="48"/>
-      <c r="C189" s="48"/>
-      <c r="D189" s="48"/>
-      <c r="E189" s="48"/>
-      <c r="F189" s="48"/>
-      <c r="G189" s="48"/>
-      <c r="H189" s="48"/>
-      <c r="I189" s="48"/>
-      <c r="J189" s="48"/>
-      <c r="K189" s="48"/>
-    </row>
-    <row r="190" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C191" s="49"/>
-      <c r="D191" s="50"/>
-      <c r="E191" s="50"/>
-      <c r="F191" s="50"/>
-      <c r="G191" s="50"/>
-      <c r="H191" s="50"/>
-      <c r="I191" s="51"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C192" s="52"/>
-      <c r="D192" s="53"/>
-      <c r="E192" s="53"/>
-      <c r="F192" s="53"/>
-      <c r="G192" s="53"/>
-      <c r="H192" s="53"/>
-      <c r="I192" s="54"/>
-    </row>
-    <row r="193" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C193" s="55"/>
-      <c r="D193" s="56"/>
-      <c r="E193" s="56"/>
-      <c r="F193" s="56"/>
-      <c r="G193" s="56"/>
-      <c r="H193" s="56"/>
-      <c r="I193" s="57"/>
-    </row>
-    <row r="194" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C194" s="19"/>
-      <c r="D194" s="20"/>
-      <c r="E194" s="20"/>
-      <c r="F194" s="20"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="3"/>
-    </row>
-    <row r="195" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C195" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D195" s="59"/>
-      <c r="E195" s="59"/>
-      <c r="F195" s="59"/>
-      <c r="G195" s="59"/>
-      <c r="H195" s="59"/>
-      <c r="I195" s="60"/>
-    </row>
-    <row r="196" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C196" s="45" t="s">
+      <c r="I197" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C198" s="19"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="19"/>
+      <c r="H198" s="19"/>
+      <c r="I198" s="3"/>
+    </row>
+    <row r="199" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C199" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D199" s="59"/>
+      <c r="E199" s="59"/>
+      <c r="F199" s="59"/>
+      <c r="G199" s="59"/>
+      <c r="H199" s="59"/>
+      <c r="I199" s="60"/>
+    </row>
+    <row r="200" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C200" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D196" s="46" t="s">
+      <c r="D200" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E196" s="46" t="s">
+      <c r="E200" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F196" s="46" t="s">
+      <c r="F200" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G196" s="46" t="s">
+      <c r="G200" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H196" s="46" t="s">
+      <c r="H200" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I196" s="6" t="s">
+      <c r="I200" s="6" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C197" s="7">
-        <v>99</v>
-      </c>
-      <c r="D197" s="8">
-        <v>7511964.9790000003</v>
-      </c>
-      <c r="E197" s="8">
-        <v>4692332.41</v>
-      </c>
-      <c r="F197" s="8">
-        <v>633.84799999999996</v>
-      </c>
-      <c r="G197" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H197" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I197" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C198" s="7">
-        <v>100</v>
-      </c>
-      <c r="D198" s="8">
-        <v>7511974.8899999997</v>
-      </c>
-      <c r="E198" s="8">
-        <v>4692320.0870000003</v>
-      </c>
-      <c r="F198" s="8">
-        <v>633.84799999999996</v>
-      </c>
-      <c r="G198" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H198" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I198" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="199" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C199" s="7">
-        <v>101</v>
-      </c>
-      <c r="D199" s="8">
-        <v>7511983.5310000004</v>
-      </c>
-      <c r="E199" s="8">
-        <v>4692327.0729999999</v>
-      </c>
-      <c r="F199" s="8">
-        <v>633.84799999999996</v>
-      </c>
-      <c r="G199" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H199" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I199" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C200" s="7">
-        <v>102</v>
-      </c>
-      <c r="D200" s="8">
-        <v>7511983.2960000001</v>
-      </c>
-      <c r="E200" s="8">
-        <v>4692327.3760000002</v>
-      </c>
-      <c r="F200" s="8">
-        <v>633.84799999999996</v>
-      </c>
-      <c r="G200" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H200" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I200" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="201" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C201" s="7">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D201" s="8">
-        <v>7511985.0760000004</v>
+        <v>7512008.932</v>
       </c>
       <c r="E201" s="8">
-        <v>4692328.8140000002</v>
+        <v>4692333.1720000003</v>
       </c>
       <c r="F201" s="8">
-        <v>633.84799999999996</v>
+        <v>636.73900000000003</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H201" s="13" t="s">
         <v>11</v>
@@ -7838,19 +7818,19 @@
     </row>
     <row r="202" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C202" s="7">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D202" s="8">
-        <v>7511987.352</v>
+        <v>7511998.9469999997</v>
       </c>
       <c r="E202" s="8">
-        <v>4692327.3890000004</v>
+        <v>4692318.0279999999</v>
       </c>
       <c r="F202" s="8">
-        <v>633.84799999999996</v>
+        <v>636.73900000000003</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H202" s="13" t="s">
         <v>11</v>
@@ -7861,19 +7841,19 @@
     </row>
     <row r="203" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C203" s="7">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D203" s="8">
-        <v>7511986.5449999999</v>
+        <v>7511986.5520000001</v>
       </c>
       <c r="E203" s="8">
-        <v>4692326.1469999999</v>
+        <v>4692326.1550000003</v>
       </c>
       <c r="F203" s="8">
-        <v>633.84799999999996</v>
+        <v>636.73900000000003</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H203" s="13" t="s">
         <v>11</v>
@@ -7884,19 +7864,19 @@
     </row>
     <row r="204" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C204" s="7">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D204" s="8">
-        <v>7511998.9709999999</v>
+        <v>7511987.3389999997</v>
       </c>
       <c r="E204" s="8">
-        <v>4692318.0420000004</v>
+        <v>4692327.3650000002</v>
       </c>
       <c r="F204" s="8">
-        <v>633.84799999999996</v>
+        <v>636.73900000000003</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H204" s="13" t="s">
         <v>11</v>
@@ -7907,19 +7887,19 @@
     </row>
     <row r="205" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C205" s="7">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D205" s="8">
-        <v>7512008.915</v>
+        <v>7511985.0970000001</v>
       </c>
       <c r="E205" s="8">
-        <v>4692333.1780000003</v>
+        <v>4692328.807</v>
       </c>
       <c r="F205" s="8">
-        <v>633.84799999999996</v>
+        <v>636.73900000000003</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H205" s="13" t="s">
         <v>11</v>
@@ -7930,19 +7910,19 @@
     </row>
     <row r="206" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C206" s="7">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D206" s="8">
-        <v>7511985.2649999997</v>
+        <v>7511983.2970000003</v>
       </c>
       <c r="E206" s="8">
-        <v>4692348.7419999996</v>
+        <v>4692327.3890000004</v>
       </c>
       <c r="F206" s="8">
-        <v>633.84799999999996</v>
+        <v>636.73900000000003</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H206" s="13" t="s">
         <v>11</v>
@@ -7951,691 +7931,691 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C207" s="15">
-        <v>98</v>
-      </c>
-      <c r="D207" s="16">
-        <v>7511992.1310000001</v>
-      </c>
-      <c r="E207" s="16">
-        <v>4692342.8039999995</v>
-      </c>
-      <c r="F207" s="16">
-        <v>633.84799999999996</v>
-      </c>
-      <c r="G207" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H207" s="17" t="s">
+    <row r="207" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C207" s="7">
+        <v>116</v>
+      </c>
+      <c r="D207" s="8">
+        <v>7511983.5590000004</v>
+      </c>
+      <c r="E207" s="8">
+        <v>4692327.051</v>
+      </c>
+      <c r="F207" s="8">
+        <v>636.73900000000003</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H207" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I207" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C208" s="7">
+        <v>117</v>
+      </c>
+      <c r="D208" s="8">
+        <v>7511974.875</v>
+      </c>
+      <c r="E208" s="8">
+        <v>4692320.0539999995</v>
+      </c>
+      <c r="F208" s="8">
+        <v>636.73900000000003</v>
+      </c>
+      <c r="G208" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H208" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I208" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C209" s="7">
+        <v>118</v>
+      </c>
+      <c r="D209" s="8">
+        <v>7511964.9790000003</v>
+      </c>
+      <c r="E209" s="8">
+        <v>4692332.41</v>
+      </c>
+      <c r="F209" s="8">
+        <v>636.73900000000003</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H209" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I209" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C210" s="7">
+        <v>119</v>
+      </c>
+      <c r="D210" s="8">
+        <v>7511985.2929999996</v>
+      </c>
+      <c r="E210" s="8">
+        <v>4692348.7340000002</v>
+      </c>
+      <c r="F210" s="8">
+        <v>636.73900000000003</v>
+      </c>
+      <c r="G210" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H210" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I210" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C211" s="15">
+        <v>109</v>
+      </c>
+      <c r="D211" s="16">
+        <v>7511989.341</v>
+      </c>
+      <c r="E211" s="16">
+        <v>4692345.4630000005</v>
+      </c>
+      <c r="F211" s="16">
+        <v>636.73900000000003</v>
+      </c>
+      <c r="G211" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H211" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I207" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="208" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C208" s="19"/>
-      <c r="D208" s="20"/>
-      <c r="E208" s="20"/>
-      <c r="F208" s="20"/>
-      <c r="G208" s="19"/>
-      <c r="H208" s="19"/>
-      <c r="I208" s="3"/>
-    </row>
-    <row r="209" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C209" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="D209" s="59"/>
-      <c r="E209" s="59"/>
-      <c r="F209" s="59"/>
-      <c r="G209" s="59"/>
-      <c r="H209" s="59"/>
-      <c r="I209" s="60"/>
-    </row>
-    <row r="210" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C210" s="45" t="s">
+      <c r="I211" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C212" s="19"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="19"/>
+      <c r="I212" s="3"/>
+    </row>
+    <row r="213" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C213" s="19"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="20"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="19"/>
+      <c r="H213" s="19"/>
+      <c r="I213" s="3"/>
+    </row>
+    <row r="214" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C214" s="19"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="19"/>
+      <c r="I214" s="3"/>
+    </row>
+    <row r="215" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C215" s="19"/>
+      <c r="D215" s="20"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="19"/>
+      <c r="H215" s="19"/>
+      <c r="I215" s="3"/>
+    </row>
+    <row r="216" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C216" s="19"/>
+      <c r="D216" s="20"/>
+      <c r="E216" s="20"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="19"/>
+      <c r="H216" s="19"/>
+      <c r="I216" s="3"/>
+    </row>
+    <row r="217" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C217" s="19"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="19"/>
+      <c r="H217" s="19"/>
+      <c r="I217" s="3"/>
+    </row>
+    <row r="218" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C218" s="19"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="19"/>
+      <c r="H218" s="19"/>
+      <c r="I218" s="3"/>
+    </row>
+    <row r="219" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C219" s="19"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="19"/>
+      <c r="H219" s="19"/>
+      <c r="I219" s="3"/>
+    </row>
+    <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" s="65"/>
+      <c r="G220" s="66"/>
+      <c r="H220" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I220" s="68"/>
+      <c r="J220" s="71"/>
+      <c r="K220" s="72"/>
+    </row>
+    <row r="221" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="76"/>
+      <c r="C221" s="76"/>
+      <c r="D221" s="77"/>
+      <c r="E221" s="78">
+        <v>140</v>
+      </c>
+      <c r="F221" s="79"/>
+      <c r="G221" s="80"/>
+      <c r="H221" s="69"/>
+      <c r="I221" s="70"/>
+      <c r="J221" s="73"/>
+      <c r="K221" s="74"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="47"/>
+      <c r="B222" s="47"/>
+      <c r="C222" s="47"/>
+      <c r="D222" s="47"/>
+      <c r="E222" s="47"/>
+      <c r="F222" s="47"/>
+      <c r="G222" s="47"/>
+      <c r="H222" s="47"/>
+      <c r="I222" s="47"/>
+      <c r="J222" s="47"/>
+      <c r="K222" s="47"/>
+    </row>
+    <row r="223" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="47"/>
+      <c r="B223" s="47"/>
+      <c r="C223" s="47"/>
+      <c r="D223" s="47"/>
+      <c r="E223" s="47"/>
+      <c r="F223" s="47"/>
+      <c r="G223" s="47"/>
+      <c r="H223" s="47"/>
+      <c r="I223" s="47"/>
+      <c r="J223" s="47"/>
+      <c r="K223" s="47"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224" s="48"/>
+      <c r="C224" s="48"/>
+      <c r="D224" s="48"/>
+      <c r="E224" s="48"/>
+      <c r="F224" s="48"/>
+      <c r="G224" s="48"/>
+      <c r="H224" s="48"/>
+      <c r="I224" s="48"/>
+      <c r="J224" s="48"/>
+      <c r="K224" s="48"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="48"/>
+      <c r="B225" s="48"/>
+      <c r="C225" s="48"/>
+      <c r="D225" s="48"/>
+      <c r="E225" s="48"/>
+      <c r="F225" s="48"/>
+      <c r="G225" s="48"/>
+      <c r="H225" s="48"/>
+      <c r="I225" s="48"/>
+      <c r="J225" s="48"/>
+      <c r="K225" s="48"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="48"/>
+      <c r="B226" s="48"/>
+      <c r="C226" s="48"/>
+      <c r="D226" s="48"/>
+      <c r="E226" s="48"/>
+      <c r="F226" s="48"/>
+      <c r="G226" s="48"/>
+      <c r="H226" s="48"/>
+      <c r="I226" s="48"/>
+      <c r="J226" s="48"/>
+      <c r="K226" s="48"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="48"/>
+      <c r="B227" s="48"/>
+      <c r="C227" s="48"/>
+      <c r="D227" s="48"/>
+      <c r="E227" s="48"/>
+      <c r="F227" s="48"/>
+      <c r="G227" s="48"/>
+      <c r="H227" s="48"/>
+      <c r="I227" s="48"/>
+      <c r="J227" s="48"/>
+      <c r="K227" s="48"/>
+    </row>
+    <row r="228" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C229" s="49"/>
+      <c r="D229" s="50"/>
+      <c r="E229" s="50"/>
+      <c r="F229" s="50"/>
+      <c r="G229" s="50"/>
+      <c r="H229" s="50"/>
+      <c r="I229" s="51"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C230" s="52"/>
+      <c r="D230" s="53"/>
+      <c r="E230" s="53"/>
+      <c r="F230" s="53"/>
+      <c r="G230" s="53"/>
+      <c r="H230" s="53"/>
+      <c r="I230" s="54"/>
+    </row>
+    <row r="231" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C231" s="55"/>
+      <c r="D231" s="56"/>
+      <c r="E231" s="56"/>
+      <c r="F231" s="56"/>
+      <c r="G231" s="56"/>
+      <c r="H231" s="56"/>
+      <c r="I231" s="57"/>
+    </row>
+    <row r="232" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C232" s="19"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="20"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="19"/>
+      <c r="H232" s="19"/>
+      <c r="I232" s="3"/>
+    </row>
+    <row r="233" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C233" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D233" s="59"/>
+      <c r="E233" s="59"/>
+      <c r="F233" s="59"/>
+      <c r="G233" s="59"/>
+      <c r="H233" s="59"/>
+      <c r="I233" s="60"/>
+    </row>
+    <row r="234" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C234" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D210" s="46" t="s">
+      <c r="D234" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E210" s="46" t="s">
+      <c r="E234" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F210" s="46" t="s">
+      <c r="F234" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G210" s="46" t="s">
+      <c r="G234" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H210" s="46" t="s">
+      <c r="H234" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I210" s="6" t="s">
+      <c r="I234" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C211" s="7">
-        <v>110</v>
-      </c>
-      <c r="D211" s="8">
-        <v>7512008.932</v>
-      </c>
-      <c r="E211" s="8">
-        <v>4692333.1720000003</v>
-      </c>
-      <c r="F211" s="8">
-        <v>636.73900000000003</v>
-      </c>
-      <c r="G211" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H211" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I211" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C212" s="7">
-        <v>111</v>
-      </c>
-      <c r="D212" s="8">
-        <v>7511998.9469999997</v>
-      </c>
-      <c r="E212" s="8">
-        <v>4692318.0279999999</v>
-      </c>
-      <c r="F212" s="8">
-        <v>636.73900000000003</v>
-      </c>
-      <c r="G212" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H212" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I212" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="213" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C213" s="7">
-        <v>112</v>
-      </c>
-      <c r="D213" s="8">
-        <v>7511986.5520000001</v>
-      </c>
-      <c r="E213" s="8">
+    <row r="235" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C235" s="7">
+        <v>122</v>
+      </c>
+      <c r="D235" s="8">
+        <v>7512008.915</v>
+      </c>
+      <c r="E235" s="8">
+        <v>4692333.2120000003</v>
+      </c>
+      <c r="F235" s="8">
+        <v>639.65499999999997</v>
+      </c>
+      <c r="G235" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H235" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I235" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C236" s="7">
+        <v>123</v>
+      </c>
+      <c r="D236" s="8">
+        <v>7511998.9440000001</v>
+      </c>
+      <c r="E236" s="8">
+        <v>4692318.0429999996</v>
+      </c>
+      <c r="F236" s="8">
+        <v>639.65499999999997</v>
+      </c>
+      <c r="G236" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H236" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I236" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C237" s="7">
+        <v>124</v>
+      </c>
+      <c r="D237" s="8">
+        <v>7511986.5669999998</v>
+      </c>
+      <c r="E237" s="8">
         <v>4692326.1550000003</v>
       </c>
-      <c r="F213" s="8">
-        <v>636.73900000000003</v>
-      </c>
-      <c r="G213" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H213" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I213" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="214" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C214" s="7">
-        <v>113</v>
-      </c>
-      <c r="D214" s="8">
-        <v>7511987.3389999997</v>
-      </c>
-      <c r="E214" s="8">
-        <v>4692327.3650000002</v>
-      </c>
-      <c r="F214" s="8">
-        <v>636.73900000000003</v>
-      </c>
-      <c r="G214" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H214" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I214" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="215" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C215" s="7">
-        <v>114</v>
-      </c>
-      <c r="D215" s="8">
-        <v>7511985.0970000001</v>
-      </c>
-      <c r="E215" s="8">
-        <v>4692328.807</v>
-      </c>
-      <c r="F215" s="8">
-        <v>636.73900000000003</v>
-      </c>
-      <c r="G215" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H215" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I215" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="216" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C216" s="7">
-        <v>115</v>
-      </c>
-      <c r="D216" s="8">
-        <v>7511983.2970000003</v>
-      </c>
-      <c r="E216" s="8">
-        <v>4692327.3890000004</v>
-      </c>
-      <c r="F216" s="8">
-        <v>636.73900000000003</v>
-      </c>
-      <c r="G216" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H216" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I216" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="217" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C217" s="7">
-        <v>116</v>
-      </c>
-      <c r="D217" s="8">
-        <v>7511983.5590000004</v>
-      </c>
-      <c r="E217" s="8">
-        <v>4692327.051</v>
-      </c>
-      <c r="F217" s="8">
-        <v>636.73900000000003</v>
-      </c>
-      <c r="G217" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H217" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I217" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C218" s="7">
-        <v>117</v>
-      </c>
-      <c r="D218" s="8">
-        <v>7511974.875</v>
-      </c>
-      <c r="E218" s="8">
-        <v>4692320.0539999995</v>
-      </c>
-      <c r="F218" s="8">
-        <v>636.73900000000003</v>
-      </c>
-      <c r="G218" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H218" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I218" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C219" s="7">
-        <v>118</v>
-      </c>
-      <c r="D219" s="8">
-        <v>7511964.9790000003</v>
-      </c>
-      <c r="E219" s="8">
-        <v>4692332.41</v>
-      </c>
-      <c r="F219" s="8">
-        <v>636.73900000000003</v>
-      </c>
-      <c r="G219" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H219" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I219" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C220" s="7">
-        <v>119</v>
-      </c>
-      <c r="D220" s="8">
-        <v>7511985.2929999996</v>
-      </c>
-      <c r="E220" s="8">
-        <v>4692348.7340000002</v>
-      </c>
-      <c r="F220" s="8">
-        <v>636.73900000000003</v>
-      </c>
-      <c r="G220" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H220" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I220" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="221" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C221" s="15">
-        <v>109</v>
-      </c>
-      <c r="D221" s="16">
-        <v>7511989.341</v>
-      </c>
-      <c r="E221" s="16">
-        <v>4692345.4630000005</v>
-      </c>
-      <c r="F221" s="16">
-        <v>636.73900000000003</v>
-      </c>
-      <c r="G221" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H221" s="17" t="s">
+      <c r="F237" s="8">
+        <v>639.65499999999997</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H237" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I237" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C238" s="7">
+        <v>125</v>
+      </c>
+      <c r="D238" s="8">
+        <v>7511987.3770000003</v>
+      </c>
+      <c r="E238" s="8">
+        <v>4692327.3640000001</v>
+      </c>
+      <c r="F238" s="8">
+        <v>639.65499999999997</v>
+      </c>
+      <c r="G238" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H238" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I238" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C239" s="7">
+        <v>126</v>
+      </c>
+      <c r="D239" s="8">
+        <v>7511985.102</v>
+      </c>
+      <c r="E239" s="8">
+        <v>4692328.8269999996</v>
+      </c>
+      <c r="F239" s="8">
+        <v>639.65499999999997</v>
+      </c>
+      <c r="G239" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H239" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I239" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C240" s="7">
+        <v>127</v>
+      </c>
+      <c r="D240" s="8">
+        <v>7511983.3059999999</v>
+      </c>
+      <c r="E240" s="8">
+        <v>4692327.4119999995</v>
+      </c>
+      <c r="F240" s="8">
+        <v>639.65499999999997</v>
+      </c>
+      <c r="G240" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H240" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I240" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C241" s="7">
+        <v>128</v>
+      </c>
+      <c r="D241" s="8">
+        <v>7511983.5499999998</v>
+      </c>
+      <c r="E241" s="8">
+        <v>4692327.0630000001</v>
+      </c>
+      <c r="F241" s="8">
+        <v>639.65499999999997</v>
+      </c>
+      <c r="G241" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H241" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I241" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C242" s="7">
+        <v>129</v>
+      </c>
+      <c r="D242" s="8">
+        <v>7511974.8669999996</v>
+      </c>
+      <c r="E242" s="8">
+        <v>4692320.0810000002</v>
+      </c>
+      <c r="F242" s="8">
+        <v>639.65499999999997</v>
+      </c>
+      <c r="G242" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H242" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I242" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C243" s="7">
+        <v>130</v>
+      </c>
+      <c r="D243" s="8">
+        <v>7511964.966</v>
+      </c>
+      <c r="E243" s="8">
+        <v>4692332.4019999998</v>
+      </c>
+      <c r="F243" s="8">
+        <v>639.65499999999997</v>
+      </c>
+      <c r="G243" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H243" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I243" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C244" s="7">
+        <v>131</v>
+      </c>
+      <c r="D244" s="8">
+        <v>7511985.2659999998</v>
+      </c>
+      <c r="E244" s="8">
+        <v>4692348.7390000001</v>
+      </c>
+      <c r="F244" s="8">
+        <v>639.65499999999997</v>
+      </c>
+      <c r="G244" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H244" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I244" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C245" s="15">
+        <v>121</v>
+      </c>
+      <c r="D245" s="16">
+        <v>7511990.1370000001</v>
+      </c>
+      <c r="E245" s="16">
+        <v>4692344.9579999996</v>
+      </c>
+      <c r="F245" s="16">
+        <v>639.65499999999997</v>
+      </c>
+      <c r="G245" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H245" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I221" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="222" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C222" s="19"/>
-      <c r="D222" s="20"/>
-      <c r="E222" s="20"/>
-      <c r="F222" s="20"/>
-      <c r="G222" s="19"/>
-      <c r="H222" s="19"/>
-      <c r="I222" s="3"/>
-    </row>
-    <row r="223" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C223" s="19"/>
-      <c r="D223" s="20"/>
-      <c r="E223" s="20"/>
-      <c r="F223" s="20"/>
-      <c r="G223" s="19"/>
-      <c r="H223" s="19"/>
-      <c r="I223" s="3"/>
-    </row>
-    <row r="224" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C224" s="19"/>
-      <c r="D224" s="20"/>
-      <c r="E224" s="20"/>
-      <c r="F224" s="20"/>
-      <c r="G224" s="19"/>
-      <c r="H224" s="19"/>
-      <c r="I224" s="3"/>
-    </row>
-    <row r="225" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C225" s="19"/>
-      <c r="D225" s="20"/>
-      <c r="E225" s="20"/>
-      <c r="F225" s="20"/>
-      <c r="G225" s="19"/>
-      <c r="H225" s="19"/>
-      <c r="I225" s="3"/>
-    </row>
-    <row r="226" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C226" s="19"/>
-      <c r="D226" s="20"/>
-      <c r="E226" s="20"/>
-      <c r="F226" s="20"/>
-      <c r="G226" s="19"/>
-      <c r="H226" s="19"/>
-      <c r="I226" s="3"/>
-    </row>
-    <row r="227" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C227" s="19"/>
-      <c r="D227" s="20"/>
-      <c r="E227" s="20"/>
-      <c r="F227" s="20"/>
-      <c r="G227" s="19"/>
-      <c r="H227" s="19"/>
-      <c r="I227" s="3"/>
-    </row>
-    <row r="228" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C228" s="19"/>
-      <c r="D228" s="20"/>
-      <c r="E228" s="20"/>
-      <c r="F228" s="20"/>
-      <c r="G228" s="19"/>
-      <c r="H228" s="19"/>
-      <c r="I228" s="3"/>
-    </row>
-    <row r="229" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C229" s="19"/>
-      <c r="D229" s="20"/>
-      <c r="E229" s="20"/>
-      <c r="F229" s="20"/>
-      <c r="G229" s="19"/>
-      <c r="H229" s="19"/>
-      <c r="I229" s="3"/>
-    </row>
-    <row r="230" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F230" s="65"/>
-      <c r="G230" s="66"/>
-      <c r="H230" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="I230" s="68"/>
-      <c r="J230" s="71"/>
-      <c r="K230" s="72"/>
-    </row>
-    <row r="231" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="B231" s="76"/>
-      <c r="C231" s="76"/>
-      <c r="D231" s="77"/>
-      <c r="E231" s="78">
-        <v>140</v>
-      </c>
-      <c r="F231" s="79"/>
-      <c r="G231" s="80"/>
-      <c r="H231" s="69"/>
-      <c r="I231" s="70"/>
-      <c r="J231" s="73"/>
-      <c r="K231" s="74"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="47"/>
-      <c r="B232" s="47"/>
-      <c r="C232" s="47"/>
-      <c r="D232" s="47"/>
-      <c r="E232" s="47"/>
-      <c r="F232" s="47"/>
-      <c r="G232" s="47"/>
-      <c r="H232" s="47"/>
-      <c r="I232" s="47"/>
-      <c r="J232" s="47"/>
-      <c r="K232" s="47"/>
-    </row>
-    <row r="233" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="47"/>
-      <c r="B233" s="47"/>
-      <c r="C233" s="47"/>
-      <c r="D233" s="47"/>
-      <c r="E233" s="47"/>
-      <c r="F233" s="47"/>
-      <c r="G233" s="47"/>
-      <c r="H233" s="47"/>
-      <c r="I233" s="47"/>
-      <c r="J233" s="47"/>
-      <c r="K233" s="47"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B234" s="48"/>
-      <c r="C234" s="48"/>
-      <c r="D234" s="48"/>
-      <c r="E234" s="48"/>
-      <c r="F234" s="48"/>
-      <c r="G234" s="48"/>
-      <c r="H234" s="48"/>
-      <c r="I234" s="48"/>
-      <c r="J234" s="48"/>
-      <c r="K234" s="48"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="48"/>
-      <c r="B235" s="48"/>
-      <c r="C235" s="48"/>
-      <c r="D235" s="48"/>
-      <c r="E235" s="48"/>
-      <c r="F235" s="48"/>
-      <c r="G235" s="48"/>
-      <c r="H235" s="48"/>
-      <c r="I235" s="48"/>
-      <c r="J235" s="48"/>
-      <c r="K235" s="48"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="48"/>
-      <c r="B236" s="48"/>
-      <c r="C236" s="48"/>
-      <c r="D236" s="48"/>
-      <c r="E236" s="48"/>
-      <c r="F236" s="48"/>
-      <c r="G236" s="48"/>
-      <c r="H236" s="48"/>
-      <c r="I236" s="48"/>
-      <c r="J236" s="48"/>
-      <c r="K236" s="48"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="48"/>
-      <c r="B237" s="48"/>
-      <c r="C237" s="48"/>
-      <c r="D237" s="48"/>
-      <c r="E237" s="48"/>
-      <c r="F237" s="48"/>
-      <c r="G237" s="48"/>
-      <c r="H237" s="48"/>
-      <c r="I237" s="48"/>
-      <c r="J237" s="48"/>
-      <c r="K237" s="48"/>
-    </row>
-    <row r="238" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C239" s="49"/>
-      <c r="D239" s="50"/>
-      <c r="E239" s="50"/>
-      <c r="F239" s="50"/>
-      <c r="G239" s="50"/>
-      <c r="H239" s="50"/>
-      <c r="I239" s="51"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C240" s="52"/>
-      <c r="D240" s="53"/>
-      <c r="E240" s="53"/>
-      <c r="F240" s="53"/>
-      <c r="G240" s="53"/>
-      <c r="H240" s="53"/>
-      <c r="I240" s="54"/>
-    </row>
-    <row r="241" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C241" s="55"/>
-      <c r="D241" s="56"/>
-      <c r="E241" s="56"/>
-      <c r="F241" s="56"/>
-      <c r="G241" s="56"/>
-      <c r="H241" s="56"/>
-      <c r="I241" s="57"/>
-    </row>
-    <row r="242" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C242" s="19"/>
-      <c r="D242" s="20"/>
-      <c r="E242" s="20"/>
-      <c r="F242" s="20"/>
-      <c r="G242" s="19"/>
-      <c r="H242" s="19"/>
-      <c r="I242" s="3"/>
-    </row>
-    <row r="243" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C243" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D243" s="59"/>
-      <c r="E243" s="59"/>
-      <c r="F243" s="59"/>
-      <c r="G243" s="59"/>
-      <c r="H243" s="59"/>
-      <c r="I243" s="60"/>
-    </row>
-    <row r="244" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C244" s="45" t="s">
+      <c r="I245" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C246" s="19"/>
+      <c r="D246" s="20"/>
+      <c r="E246" s="20"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="19"/>
+      <c r="H246" s="19"/>
+      <c r="I246" s="3"/>
+    </row>
+    <row r="247" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C247" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D247" s="59"/>
+      <c r="E247" s="59"/>
+      <c r="F247" s="59"/>
+      <c r="G247" s="59"/>
+      <c r="H247" s="59"/>
+      <c r="I247" s="60"/>
+    </row>
+    <row r="248" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C248" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D244" s="46" t="s">
+      <c r="D248" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E244" s="46" t="s">
+      <c r="E248" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F244" s="46" t="s">
+      <c r="F248" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G244" s="46" t="s">
+      <c r="G248" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H244" s="46" t="s">
+      <c r="H248" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I244" s="6" t="s">
+      <c r="I248" s="6" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="245" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C245" s="7">
-        <v>122</v>
-      </c>
-      <c r="D245" s="8">
-        <v>7512008.915</v>
-      </c>
-      <c r="E245" s="8">
-        <v>4692333.2120000003</v>
-      </c>
-      <c r="F245" s="8">
-        <v>639.65499999999997</v>
-      </c>
-      <c r="G245" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H245" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I245" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="246" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C246" s="7">
-        <v>123</v>
-      </c>
-      <c r="D246" s="8">
-        <v>7511998.9440000001</v>
-      </c>
-      <c r="E246" s="8">
-        <v>4692318.0429999996</v>
-      </c>
-      <c r="F246" s="8">
-        <v>639.65499999999997</v>
-      </c>
-      <c r="G246" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H246" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I246" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="247" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C247" s="7">
-        <v>124</v>
-      </c>
-      <c r="D247" s="8">
-        <v>7511986.5669999998</v>
-      </c>
-      <c r="E247" s="8">
-        <v>4692326.1550000003</v>
-      </c>
-      <c r="F247" s="8">
-        <v>639.65499999999997</v>
-      </c>
-      <c r="G247" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H247" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I247" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="248" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C248" s="7">
-        <v>125</v>
-      </c>
-      <c r="D248" s="8">
-        <v>7511987.3770000003</v>
-      </c>
-      <c r="E248" s="8">
-        <v>4692327.3640000001</v>
-      </c>
-      <c r="F248" s="8">
-        <v>639.65499999999997</v>
-      </c>
-      <c r="G248" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H248" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I248" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="249" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C249" s="7">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="D249" s="8">
-        <v>7511985.102</v>
+        <v>7512610.8490000004</v>
       </c>
       <c r="E249" s="8">
-        <v>4692328.8269999996</v>
+        <v>4692367.7560000001</v>
       </c>
       <c r="F249" s="8">
-        <v>639.65499999999997</v>
+        <v>646.44799999999998</v>
       </c>
       <c r="G249" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H249" s="13" t="s">
         <v>11</v>
@@ -8646,19 +8626,19 @@
     </row>
     <row r="250" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C250" s="7">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="D250" s="8">
-        <v>7511983.3059999999</v>
+        <v>7512599.5999999996</v>
       </c>
       <c r="E250" s="8">
-        <v>4692327.4119999995</v>
+        <v>4692356.7149999999</v>
       </c>
       <c r="F250" s="8">
-        <v>639.65499999999997</v>
+        <v>646.44799999999998</v>
       </c>
       <c r="G250" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H250" s="13" t="s">
         <v>11</v>
@@ -8669,19 +8649,19 @@
     </row>
     <row r="251" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C251" s="7">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="D251" s="8">
-        <v>7511983.5499999998</v>
+        <v>7512597.4989999998</v>
       </c>
       <c r="E251" s="8">
-        <v>4692327.0630000001</v>
+        <v>4692358.8310000002</v>
       </c>
       <c r="F251" s="8">
-        <v>639.65499999999997</v>
+        <v>646.44799999999998</v>
       </c>
       <c r="G251" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H251" s="13" t="s">
         <v>11</v>
@@ -8692,19 +8672,19 @@
     </row>
     <row r="252" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C252" s="7">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="D252" s="8">
-        <v>7511974.8669999996</v>
+        <v>7512597.2829999998</v>
       </c>
       <c r="E252" s="8">
-        <v>4692320.0810000002</v>
+        <v>4692358.6289999997</v>
       </c>
       <c r="F252" s="8">
-        <v>639.65499999999997</v>
+        <v>646.44799999999998</v>
       </c>
       <c r="G252" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H252" s="13" t="s">
         <v>11</v>
@@ -8715,19 +8695,19 @@
     </row>
     <row r="253" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C253" s="7">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="D253" s="8">
-        <v>7511964.966</v>
+        <v>7512594.8899999997</v>
       </c>
       <c r="E253" s="8">
-        <v>4692332.4019999998</v>
+        <v>4692361.0559999999</v>
       </c>
       <c r="F253" s="8">
-        <v>639.65499999999997</v>
+        <v>646.44799999999998</v>
       </c>
       <c r="G253" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H253" s="13" t="s">
         <v>11</v>
@@ -8738,19 +8718,19 @@
     </row>
     <row r="254" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C254" s="7">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="D254" s="8">
-        <v>7511985.2659999998</v>
+        <v>7512595.0959999999</v>
       </c>
       <c r="E254" s="8">
-        <v>4692348.7390000001</v>
+        <v>4692361.2659999998</v>
       </c>
       <c r="F254" s="8">
-        <v>639.65499999999997</v>
+        <v>646.44799999999998</v>
       </c>
       <c r="G254" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H254" s="13" t="s">
         <v>11</v>
@@ -8759,81 +8739,107 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C255" s="15">
-        <v>121</v>
-      </c>
-      <c r="D255" s="16">
-        <v>7511990.1370000001</v>
-      </c>
-      <c r="E255" s="16">
-        <v>4692344.9579999996</v>
-      </c>
-      <c r="F255" s="16">
-        <v>639.65499999999997</v>
-      </c>
-      <c r="G255" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="H255" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I255" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="256" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C256" s="19"/>
-      <c r="D256" s="20"/>
-      <c r="E256" s="20"/>
-      <c r="F256" s="20"/>
-      <c r="G256" s="19"/>
-      <c r="H256" s="19"/>
-      <c r="I256" s="3"/>
-    </row>
-    <row r="257" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C257" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D257" s="59"/>
-      <c r="E257" s="59"/>
-      <c r="F257" s="59"/>
-      <c r="G257" s="59"/>
-      <c r="H257" s="59"/>
-      <c r="I257" s="60"/>
-    </row>
-    <row r="258" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C258" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D258" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E258" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F258" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G258" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H258" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="I258" s="6" t="s">
-        <v>10</v>
+    <row r="255" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C255" s="7">
+        <v>183</v>
+      </c>
+      <c r="D255" s="8">
+        <v>7512592.7680000002</v>
+      </c>
+      <c r="E255" s="8">
+        <v>4692363.6210000003</v>
+      </c>
+      <c r="F255" s="8">
+        <v>646.44799999999998</v>
+      </c>
+      <c r="G255" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H255" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I255" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C256" s="7">
+        <v>184</v>
+      </c>
+      <c r="D256" s="8">
+        <v>7512592.5489999996</v>
+      </c>
+      <c r="E256" s="8">
+        <v>4692363.41</v>
+      </c>
+      <c r="F256" s="8">
+        <v>646.44799999999998</v>
+      </c>
+      <c r="G256" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H256" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I256" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C257" s="7">
+        <v>185</v>
+      </c>
+      <c r="D257" s="8">
+        <v>7512590.29</v>
+      </c>
+      <c r="E257" s="8">
+        <v>4692365.6869999999</v>
+      </c>
+      <c r="F257" s="8">
+        <v>646.44799999999998</v>
+      </c>
+      <c r="G257" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H257" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I257" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C258" s="7">
+        <v>186</v>
+      </c>
+      <c r="D258" s="8">
+        <v>7512590.5049999999</v>
+      </c>
+      <c r="E258" s="8">
+        <v>4692365.9369999999</v>
+      </c>
+      <c r="F258" s="8">
+        <v>646.44799999999998</v>
+      </c>
+      <c r="G258" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H258" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I258" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="259" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C259" s="7">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D259" s="8">
-        <v>7512610.8490000004</v>
+        <v>7512587.3109999998</v>
       </c>
       <c r="E259" s="8">
-        <v>4692367.7560000001</v>
+        <v>4692369.1449999996</v>
       </c>
       <c r="F259" s="8">
         <v>646.44799999999998</v>
@@ -8850,13 +8856,13 @@
     </row>
     <row r="260" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C260" s="7">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D260" s="8">
-        <v>7512599.5999999996</v>
+        <v>7512587.102</v>
       </c>
       <c r="E260" s="8">
-        <v>4692356.7149999999</v>
+        <v>4692368.9380000001</v>
       </c>
       <c r="F260" s="8">
         <v>646.44799999999998</v>
@@ -8873,13 +8879,13 @@
     </row>
     <row r="261" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C261" s="7">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D261" s="8">
-        <v>7512597.4989999998</v>
+        <v>7512583.1069999998</v>
       </c>
       <c r="E261" s="8">
-        <v>4692358.8310000002</v>
+        <v>4692372.9510000004</v>
       </c>
       <c r="F261" s="8">
         <v>646.44799999999998</v>
@@ -8896,13 +8902,13 @@
     </row>
     <row r="262" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C262" s="7">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D262" s="8">
-        <v>7512597.2829999998</v>
+        <v>7512585.2529999996</v>
       </c>
       <c r="E262" s="8">
-        <v>4692358.6289999997</v>
+        <v>4692375.0829999996</v>
       </c>
       <c r="F262" s="8">
         <v>646.44799999999998</v>
@@ -8919,13 +8925,13 @@
     </row>
     <row r="263" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C263" s="7">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D263" s="8">
-        <v>7512594.8899999997</v>
+        <v>7512584.5959999999</v>
       </c>
       <c r="E263" s="8">
-        <v>4692361.0559999999</v>
+        <v>4692375.6789999995</v>
       </c>
       <c r="F263" s="8">
         <v>646.44799999999998</v>
@@ -8942,13 +8948,13 @@
     </row>
     <row r="264" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C264" s="7">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D264" s="8">
-        <v>7512595.0959999999</v>
+        <v>7512592.6380000003</v>
       </c>
       <c r="E264" s="8">
-        <v>4692361.2659999998</v>
+        <v>4692384.1100000003</v>
       </c>
       <c r="F264" s="8">
         <v>646.44799999999998</v>
@@ -8965,13 +8971,13 @@
     </row>
     <row r="265" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C265" s="7">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D265" s="8">
-        <v>7512592.7680000002</v>
+        <v>7512593.5489999996</v>
       </c>
       <c r="E265" s="8">
-        <v>4692363.6210000003</v>
+        <v>4692383.2350000003</v>
       </c>
       <c r="F265" s="8">
         <v>646.44799999999998</v>
@@ -8988,13 +8994,13 @@
     </row>
     <row r="266" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C266" s="7">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D266" s="8">
-        <v>7512592.5489999996</v>
+        <v>7512594.5180000002</v>
       </c>
       <c r="E266" s="8">
-        <v>4692363.41</v>
+        <v>4692384.2300000004</v>
       </c>
       <c r="F266" s="8">
         <v>646.44799999999998</v>
@@ -9011,13 +9017,13 @@
     </row>
     <row r="267" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C267" s="7">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D267" s="8">
-        <v>7512590.29</v>
+        <v>7512602.932</v>
       </c>
       <c r="E267" s="8">
-        <v>4692365.6869999999</v>
+        <v>4692375.6289999997</v>
       </c>
       <c r="F267" s="8">
         <v>646.44799999999998</v>
@@ -9034,13 +9040,13 @@
     </row>
     <row r="268" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C268" s="7">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D268" s="8">
-        <v>7512590.5049999999</v>
+        <v>7512602.0480000004</v>
       </c>
       <c r="E268" s="8">
-        <v>4692365.9369999999</v>
+        <v>4692374.6540000001</v>
       </c>
       <c r="F268" s="8">
         <v>646.44799999999998</v>
@@ -9056,16 +9062,16 @@
       </c>
     </row>
     <row r="269" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C269" s="7">
-        <v>187</v>
-      </c>
-      <c r="D269" s="8">
-        <v>7512587.3109999998</v>
-      </c>
-      <c r="E269" s="8">
-        <v>4692369.1449999996</v>
-      </c>
-      <c r="F269" s="8">
+      <c r="C269" s="11">
+        <v>197</v>
+      </c>
+      <c r="D269" s="12">
+        <v>7512606.6950000003</v>
+      </c>
+      <c r="E269" s="12">
+        <v>4692369.9079999998</v>
+      </c>
+      <c r="F269" s="12">
         <v>646.44799999999998</v>
       </c>
       <c r="G269" s="9" t="s">
@@ -9079,16 +9085,16 @@
       </c>
     </row>
     <row r="270" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C270" s="7">
-        <v>188</v>
-      </c>
-      <c r="D270" s="8">
-        <v>7512587.102</v>
-      </c>
-      <c r="E270" s="8">
-        <v>4692368.9380000001</v>
-      </c>
-      <c r="F270" s="8">
+      <c r="C270" s="11">
+        <v>198</v>
+      </c>
+      <c r="D270" s="12">
+        <v>7512607.682</v>
+      </c>
+      <c r="E270" s="12">
+        <v>4692370.9469999997</v>
+      </c>
+      <c r="F270" s="12">
         <v>646.44799999999998</v>
       </c>
       <c r="G270" s="9" t="s">
@@ -9101,260 +9107,138 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C271" s="7">
-        <v>189</v>
-      </c>
-      <c r="D271" s="8">
-        <v>7512583.1069999998</v>
-      </c>
-      <c r="E271" s="8">
-        <v>4692372.9510000004</v>
-      </c>
-      <c r="F271" s="8">
+    <row r="271" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C271" s="15">
+        <v>221</v>
+      </c>
+      <c r="D271" s="16">
+        <v>7512602.966</v>
+      </c>
+      <c r="E271" s="16">
+        <v>4692371.7139999997</v>
+      </c>
+      <c r="F271" s="16">
         <v>646.44799999999998</v>
       </c>
-      <c r="G271" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H271" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I271" s="14" t="s">
+      <c r="G271" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H271" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I271" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="272" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C272" s="7">
-        <v>190</v>
-      </c>
-      <c r="D272" s="8">
-        <v>7512585.2529999996</v>
-      </c>
-      <c r="E272" s="8">
-        <v>4692375.0829999996</v>
-      </c>
-      <c r="F272" s="8">
-        <v>646.44799999999998</v>
-      </c>
-      <c r="G272" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H272" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I272" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="273" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C273" s="7">
-        <v>191</v>
-      </c>
-      <c r="D273" s="8">
-        <v>7512584.5959999999</v>
-      </c>
-      <c r="E273" s="8">
-        <v>4692375.6789999995</v>
-      </c>
-      <c r="F273" s="8">
-        <v>646.44799999999998</v>
-      </c>
-      <c r="G273" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H273" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I273" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="274" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C274" s="7">
-        <v>192</v>
-      </c>
-      <c r="D274" s="8">
-        <v>7512592.6380000003</v>
-      </c>
-      <c r="E274" s="8">
-        <v>4692384.1100000003</v>
-      </c>
-      <c r="F274" s="8">
-        <v>646.44799999999998</v>
-      </c>
-      <c r="G274" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H274" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I274" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="275" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C275" s="7">
-        <v>193</v>
-      </c>
-      <c r="D275" s="8">
-        <v>7512593.5489999996</v>
-      </c>
-      <c r="E275" s="8">
-        <v>4692383.2350000003</v>
-      </c>
-      <c r="F275" s="8">
-        <v>646.44799999999998</v>
-      </c>
-      <c r="G275" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H275" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I275" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="276" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C276" s="7">
-        <v>194</v>
-      </c>
-      <c r="D276" s="8">
-        <v>7512594.5180000002</v>
-      </c>
-      <c r="E276" s="8">
-        <v>4692384.2300000004</v>
-      </c>
-      <c r="F276" s="8">
-        <v>646.44799999999998</v>
-      </c>
-      <c r="G276" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H276" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I276" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="277" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C277" s="7">
-        <v>195</v>
-      </c>
-      <c r="D277" s="8">
-        <v>7512602.932</v>
-      </c>
-      <c r="E277" s="8">
-        <v>4692375.6289999997</v>
-      </c>
-      <c r="F277" s="8">
-        <v>646.44799999999998</v>
-      </c>
-      <c r="G277" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H277" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I277" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="278" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C278" s="7">
-        <v>196</v>
-      </c>
-      <c r="D278" s="8">
-        <v>7512602.0480000004</v>
-      </c>
-      <c r="E278" s="8">
-        <v>4692374.6540000001</v>
-      </c>
-      <c r="F278" s="8">
-        <v>646.44799999999998</v>
-      </c>
-      <c r="G278" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H278" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I278" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="279" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C279" s="11">
-        <v>197</v>
-      </c>
-      <c r="D279" s="12">
-        <v>7512606.6950000003</v>
-      </c>
-      <c r="E279" s="12">
-        <v>4692369.9079999998</v>
-      </c>
-      <c r="F279" s="12">
-        <v>646.44799999999998</v>
-      </c>
-      <c r="G279" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H279" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I279" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="280" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C280" s="11">
-        <v>198</v>
-      </c>
-      <c r="D280" s="12">
-        <v>7512607.682</v>
-      </c>
-      <c r="E280" s="12">
-        <v>4692370.9469999997</v>
-      </c>
-      <c r="F280" s="12">
-        <v>646.44799999999998</v>
-      </c>
-      <c r="G280" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H280" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I280" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="281" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C281" s="15">
-        <v>221</v>
-      </c>
-      <c r="D281" s="16">
-        <v>7512602.966</v>
-      </c>
-      <c r="E281" s="16">
-        <v>4692371.7139999997</v>
-      </c>
-      <c r="F281" s="16">
-        <v>646.44799999999998</v>
-      </c>
-      <c r="G281" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="H281" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I281" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="282" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C272" s="19"/>
+      <c r="D272" s="20"/>
+      <c r="E272" s="20"/>
+      <c r="F272" s="20"/>
+      <c r="G272" s="19"/>
+      <c r="H272" s="19"/>
+      <c r="I272" s="3"/>
+    </row>
+    <row r="273" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C273" s="19"/>
+      <c r="D273" s="20"/>
+      <c r="E273" s="20"/>
+      <c r="F273" s="20"/>
+      <c r="G273" s="19"/>
+      <c r="H273" s="19"/>
+      <c r="I273" s="3"/>
+    </row>
+    <row r="274" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C274" s="19"/>
+      <c r="D274" s="20"/>
+      <c r="E274" s="20"/>
+      <c r="F274" s="20"/>
+      <c r="G274" s="19"/>
+      <c r="H274" s="19"/>
+      <c r="I274" s="3"/>
+    </row>
+    <row r="275" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C275" s="19"/>
+      <c r="D275" s="20"/>
+      <c r="E275" s="20"/>
+      <c r="F275" s="20"/>
+      <c r="G275" s="19"/>
+      <c r="H275" s="19"/>
+      <c r="I275" s="3"/>
+    </row>
+    <row r="276" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C276" s="19"/>
+      <c r="D276" s="20"/>
+      <c r="E276" s="20"/>
+      <c r="F276" s="20"/>
+      <c r="G276" s="19"/>
+      <c r="H276" s="19"/>
+      <c r="I276" s="3"/>
+    </row>
+    <row r="277" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C277" s="19"/>
+      <c r="D277" s="20"/>
+      <c r="E277" s="20"/>
+      <c r="F277" s="20"/>
+      <c r="G277" s="19"/>
+      <c r="H277" s="19"/>
+      <c r="I277" s="3"/>
+    </row>
+    <row r="278" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C278" s="19"/>
+      <c r="D278" s="20"/>
+      <c r="E278" s="20"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="19"/>
+      <c r="H278" s="19"/>
+      <c r="I278" s="3"/>
+    </row>
+    <row r="279" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C279" s="19"/>
+      <c r="D279" s="20"/>
+      <c r="E279" s="20"/>
+      <c r="F279" s="20"/>
+      <c r="G279" s="19"/>
+      <c r="H279" s="19"/>
+      <c r="I279" s="3"/>
+    </row>
+    <row r="280" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F280" s="65"/>
+      <c r="G280" s="66"/>
+      <c r="H280" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I280" s="68"/>
+      <c r="J280" s="71"/>
+      <c r="K280" s="72"/>
+    </row>
+    <row r="281" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B281" s="76"/>
+      <c r="C281" s="76"/>
+      <c r="D281" s="77"/>
+      <c r="E281" s="78">
+        <v>140</v>
+      </c>
+      <c r="F281" s="79"/>
+      <c r="G281" s="80"/>
+      <c r="H281" s="69"/>
+      <c r="I281" s="70"/>
+      <c r="J281" s="73"/>
+      <c r="K281" s="74"/>
+    </row>
+    <row r="282" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C282" s="19"/>
       <c r="D282" s="20"/>
       <c r="E282" s="20"/>
@@ -9363,274 +9247,396 @@
       <c r="H282" s="19"/>
       <c r="I282" s="3"/>
     </row>
-    <row r="283" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C283" s="19"/>
-      <c r="D283" s="20"/>
-      <c r="E283" s="20"/>
-      <c r="F283" s="20"/>
-      <c r="G283" s="19"/>
-      <c r="H283" s="19"/>
-      <c r="I283" s="3"/>
-    </row>
-    <row r="284" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C284" s="19"/>
-      <c r="D284" s="20"/>
-      <c r="E284" s="20"/>
-      <c r="F284" s="20"/>
-      <c r="G284" s="19"/>
-      <c r="H284" s="19"/>
-      <c r="I284" s="3"/>
-    </row>
-    <row r="285" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C285" s="19"/>
-      <c r="D285" s="20"/>
-      <c r="E285" s="20"/>
-      <c r="F285" s="20"/>
-      <c r="G285" s="19"/>
-      <c r="H285" s="19"/>
-      <c r="I285" s="3"/>
-    </row>
-    <row r="286" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C286" s="19"/>
-      <c r="D286" s="20"/>
-      <c r="E286" s="20"/>
-      <c r="F286" s="20"/>
-      <c r="G286" s="19"/>
-      <c r="H286" s="19"/>
-      <c r="I286" s="3"/>
-    </row>
-    <row r="287" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C287" s="19"/>
-      <c r="D287" s="20"/>
-      <c r="E287" s="20"/>
-      <c r="F287" s="20"/>
-      <c r="G287" s="19"/>
-      <c r="H287" s="19"/>
-      <c r="I287" s="3"/>
-    </row>
-    <row r="288" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C288" s="19"/>
-      <c r="D288" s="20"/>
-      <c r="E288" s="20"/>
-      <c r="F288" s="20"/>
-      <c r="G288" s="19"/>
-      <c r="H288" s="19"/>
-      <c r="I288" s="3"/>
-    </row>
-    <row r="289" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C289" s="19"/>
-      <c r="D289" s="20"/>
-      <c r="E289" s="20"/>
-      <c r="F289" s="20"/>
-      <c r="G289" s="19"/>
-      <c r="H289" s="19"/>
-      <c r="I289" s="3"/>
-    </row>
-    <row r="290" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F290" s="65"/>
-      <c r="G290" s="66"/>
-      <c r="H290" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="I290" s="68"/>
-      <c r="J290" s="71"/>
-      <c r="K290" s="72"/>
-    </row>
-    <row r="291" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="B291" s="76"/>
-      <c r="C291" s="76"/>
-      <c r="D291" s="77"/>
-      <c r="E291" s="78">
-        <v>140</v>
-      </c>
-      <c r="F291" s="79"/>
-      <c r="G291" s="80"/>
-      <c r="H291" s="69"/>
-      <c r="I291" s="70"/>
-      <c r="J291" s="73"/>
-      <c r="K291" s="74"/>
-    </row>
-    <row r="292" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C292" s="19"/>
-      <c r="D292" s="20"/>
-      <c r="E292" s="20"/>
-      <c r="F292" s="20"/>
-      <c r="G292" s="19"/>
-      <c r="H292" s="19"/>
-      <c r="I292" s="3"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" s="47"/>
-      <c r="B293" s="47"/>
-      <c r="C293" s="47"/>
-      <c r="D293" s="47"/>
-      <c r="E293" s="47"/>
-      <c r="F293" s="47"/>
-      <c r="G293" s="47"/>
-      <c r="H293" s="47"/>
-      <c r="I293" s="47"/>
-      <c r="J293" s="47"/>
-      <c r="K293" s="47"/>
-    </row>
-    <row r="294" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="47"/>
-      <c r="B294" s="47"/>
-      <c r="C294" s="47"/>
-      <c r="D294" s="47"/>
-      <c r="E294" s="47"/>
-      <c r="F294" s="47"/>
-      <c r="G294" s="47"/>
-      <c r="H294" s="47"/>
-      <c r="I294" s="47"/>
-      <c r="J294" s="47"/>
-      <c r="K294" s="47"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="48" t="s">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" s="47"/>
+      <c r="B283" s="47"/>
+      <c r="C283" s="47"/>
+      <c r="D283" s="47"/>
+      <c r="E283" s="47"/>
+      <c r="F283" s="47"/>
+      <c r="G283" s="47"/>
+      <c r="H283" s="47"/>
+      <c r="I283" s="47"/>
+      <c r="J283" s="47"/>
+      <c r="K283" s="47"/>
+    </row>
+    <row r="284" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="47"/>
+      <c r="B284" s="47"/>
+      <c r="C284" s="47"/>
+      <c r="D284" s="47"/>
+      <c r="E284" s="47"/>
+      <c r="F284" s="47"/>
+      <c r="G284" s="47"/>
+      <c r="H284" s="47"/>
+      <c r="I284" s="47"/>
+      <c r="J284" s="47"/>
+      <c r="K284" s="47"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B295" s="48"/>
-      <c r="C295" s="48"/>
-      <c r="D295" s="48"/>
-      <c r="E295" s="48"/>
-      <c r="F295" s="48"/>
-      <c r="G295" s="48"/>
-      <c r="H295" s="48"/>
-      <c r="I295" s="48"/>
-      <c r="J295" s="48"/>
-      <c r="K295" s="48"/>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="48"/>
-      <c r="B296" s="48"/>
-      <c r="C296" s="48"/>
-      <c r="D296" s="48"/>
-      <c r="E296" s="48"/>
-      <c r="F296" s="48"/>
-      <c r="G296" s="48"/>
-      <c r="H296" s="48"/>
-      <c r="I296" s="48"/>
-      <c r="J296" s="48"/>
-      <c r="K296" s="48"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="48"/>
-      <c r="B297" s="48"/>
-      <c r="C297" s="48"/>
-      <c r="D297" s="48"/>
-      <c r="E297" s="48"/>
-      <c r="F297" s="48"/>
-      <c r="G297" s="48"/>
-      <c r="H297" s="48"/>
-      <c r="I297" s="48"/>
-      <c r="J297" s="48"/>
-      <c r="K297" s="48"/>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="48"/>
-      <c r="B298" s="48"/>
-      <c r="C298" s="48"/>
-      <c r="D298" s="48"/>
-      <c r="E298" s="48"/>
-      <c r="F298" s="48"/>
-      <c r="G298" s="48"/>
-      <c r="H298" s="48"/>
-      <c r="I298" s="48"/>
-      <c r="J298" s="48"/>
-      <c r="K298" s="48"/>
-    </row>
-    <row r="299" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C300" s="49"/>
-      <c r="D300" s="50"/>
-      <c r="E300" s="50"/>
-      <c r="F300" s="50"/>
-      <c r="G300" s="50"/>
-      <c r="H300" s="50"/>
-      <c r="I300" s="51"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C301" s="52"/>
-      <c r="D301" s="53"/>
-      <c r="E301" s="53"/>
-      <c r="F301" s="53"/>
-      <c r="G301" s="53"/>
-      <c r="H301" s="53"/>
-      <c r="I301" s="54"/>
-    </row>
-    <row r="302" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C302" s="55"/>
-      <c r="D302" s="56"/>
-      <c r="E302" s="56"/>
-      <c r="F302" s="56"/>
-      <c r="G302" s="56"/>
-      <c r="H302" s="56"/>
-      <c r="I302" s="57"/>
-    </row>
-    <row r="303" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C303" s="19"/>
-      <c r="D303" s="20"/>
-      <c r="E303" s="20"/>
-      <c r="F303" s="20"/>
-      <c r="G303" s="19"/>
-      <c r="H303" s="19"/>
-      <c r="I303" s="3"/>
-    </row>
-    <row r="304" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C304" s="58" t="s">
+      <c r="B285" s="48"/>
+      <c r="C285" s="48"/>
+      <c r="D285" s="48"/>
+      <c r="E285" s="48"/>
+      <c r="F285" s="48"/>
+      <c r="G285" s="48"/>
+      <c r="H285" s="48"/>
+      <c r="I285" s="48"/>
+      <c r="J285" s="48"/>
+      <c r="K285" s="48"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" s="48"/>
+      <c r="B286" s="48"/>
+      <c r="C286" s="48"/>
+      <c r="D286" s="48"/>
+      <c r="E286" s="48"/>
+      <c r="F286" s="48"/>
+      <c r="G286" s="48"/>
+      <c r="H286" s="48"/>
+      <c r="I286" s="48"/>
+      <c r="J286" s="48"/>
+      <c r="K286" s="48"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" s="48"/>
+      <c r="B287" s="48"/>
+      <c r="C287" s="48"/>
+      <c r="D287" s="48"/>
+      <c r="E287" s="48"/>
+      <c r="F287" s="48"/>
+      <c r="G287" s="48"/>
+      <c r="H287" s="48"/>
+      <c r="I287" s="48"/>
+      <c r="J287" s="48"/>
+      <c r="K287" s="48"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" s="48"/>
+      <c r="B288" s="48"/>
+      <c r="C288" s="48"/>
+      <c r="D288" s="48"/>
+      <c r="E288" s="48"/>
+      <c r="F288" s="48"/>
+      <c r="G288" s="48"/>
+      <c r="H288" s="48"/>
+      <c r="I288" s="48"/>
+      <c r="J288" s="48"/>
+      <c r="K288" s="48"/>
+    </row>
+    <row r="289" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="290" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C290" s="49"/>
+      <c r="D290" s="50"/>
+      <c r="E290" s="50"/>
+      <c r="F290" s="50"/>
+      <c r="G290" s="50"/>
+      <c r="H290" s="50"/>
+      <c r="I290" s="51"/>
+    </row>
+    <row r="291" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C291" s="52"/>
+      <c r="D291" s="53"/>
+      <c r="E291" s="53"/>
+      <c r="F291" s="53"/>
+      <c r="G291" s="53"/>
+      <c r="H291" s="53"/>
+      <c r="I291" s="54"/>
+    </row>
+    <row r="292" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C292" s="55"/>
+      <c r="D292" s="56"/>
+      <c r="E292" s="56"/>
+      <c r="F292" s="56"/>
+      <c r="G292" s="56"/>
+      <c r="H292" s="56"/>
+      <c r="I292" s="57"/>
+    </row>
+    <row r="293" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C293" s="19"/>
+      <c r="D293" s="20"/>
+      <c r="E293" s="20"/>
+      <c r="F293" s="20"/>
+      <c r="G293" s="19"/>
+      <c r="H293" s="19"/>
+      <c r="I293" s="3"/>
+    </row>
+    <row r="294" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C294" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D304" s="59"/>
-      <c r="E304" s="59"/>
-      <c r="F304" s="59"/>
-      <c r="G304" s="59"/>
-      <c r="H304" s="59"/>
-      <c r="I304" s="60"/>
-    </row>
-    <row r="305" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C305" s="40" t="s">
+      <c r="D294" s="59"/>
+      <c r="E294" s="59"/>
+      <c r="F294" s="59"/>
+      <c r="G294" s="59"/>
+      <c r="H294" s="59"/>
+      <c r="I294" s="60"/>
+    </row>
+    <row r="295" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C295" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D305" s="42" t="s">
+      <c r="D295" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E305" s="42" t="s">
+      <c r="E295" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F305" s="42" t="s">
+      <c r="F295" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G305" s="42" t="s">
+      <c r="G295" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H305" s="42" t="s">
+      <c r="H295" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I305" s="6" t="s">
+      <c r="I295" s="6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C296" s="7">
+        <v>236</v>
+      </c>
+      <c r="D296" s="8">
+        <v>7512590.4390000002</v>
+      </c>
+      <c r="E296" s="8">
+        <v>4692365.8650000002</v>
+      </c>
+      <c r="F296" s="8">
+        <v>649.31600000000003</v>
+      </c>
+      <c r="G296" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H296" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I296" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C297" s="7">
+        <v>237</v>
+      </c>
+      <c r="D297" s="8">
+        <v>7512587.324</v>
+      </c>
+      <c r="E297" s="8">
+        <v>4692369.04</v>
+      </c>
+      <c r="F297" s="8">
+        <v>649.31600000000003</v>
+      </c>
+      <c r="G297" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H297" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I297" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C298" s="7">
+        <v>238</v>
+      </c>
+      <c r="D298" s="8">
+        <v>7512587.1380000003</v>
+      </c>
+      <c r="E298" s="8">
+        <v>4692368.8679999998</v>
+      </c>
+      <c r="F298" s="8">
+        <v>649.31600000000003</v>
+      </c>
+      <c r="G298" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H298" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I298" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C299" s="7">
+        <v>239</v>
+      </c>
+      <c r="D299" s="8">
+        <v>7512583.1100000003</v>
+      </c>
+      <c r="E299" s="8">
+        <v>4692372.9939999999</v>
+      </c>
+      <c r="F299" s="8">
+        <v>649.31600000000003</v>
+      </c>
+      <c r="G299" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H299" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I299" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C300" s="7">
+        <v>240</v>
+      </c>
+      <c r="D300" s="8">
+        <v>7512594.4759999998</v>
+      </c>
+      <c r="E300" s="8">
+        <v>4692384.176</v>
+      </c>
+      <c r="F300" s="8">
+        <v>649.31600000000003</v>
+      </c>
+      <c r="G300" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H300" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I300" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C301" s="7">
+        <v>241</v>
+      </c>
+      <c r="D301" s="8">
+        <v>7512602.9859999996</v>
+      </c>
+      <c r="E301" s="8">
+        <v>4692375.426</v>
+      </c>
+      <c r="F301" s="8">
+        <v>649.31600000000003</v>
+      </c>
+      <c r="G301" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H301" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I301" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C302" s="7">
+        <v>242</v>
+      </c>
+      <c r="D302" s="8">
+        <v>7512602.0630000001</v>
+      </c>
+      <c r="E302" s="8">
+        <v>4692374.4570000004</v>
+      </c>
+      <c r="F302" s="8">
+        <v>649.31600000000003</v>
+      </c>
+      <c r="G302" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H302" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I302" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C303" s="7">
+        <v>243</v>
+      </c>
+      <c r="D303" s="8">
+        <v>7512606.727</v>
+      </c>
+      <c r="E303" s="8">
+        <v>4692369.909</v>
+      </c>
+      <c r="F303" s="8">
+        <v>649.31600000000003</v>
+      </c>
+      <c r="G303" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H303" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I303" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C304" s="7">
+        <v>244</v>
+      </c>
+      <c r="D304" s="8">
+        <v>7512607.801</v>
+      </c>
+      <c r="E304" s="8">
+        <v>4692370.9210000001</v>
+      </c>
+      <c r="F304" s="8">
+        <v>649.31600000000003</v>
+      </c>
+      <c r="G304" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H304" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I304" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C305" s="7">
+        <v>245</v>
+      </c>
+      <c r="D305" s="8">
+        <v>7512610.8650000002</v>
+      </c>
+      <c r="E305" s="8">
+        <v>4692367.8140000002</v>
+      </c>
+      <c r="F305" s="8">
+        <v>649.31600000000003</v>
+      </c>
+      <c r="G305" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H305" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I305" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="306" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C306" s="7">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D306" s="8">
-        <v>7512590.4390000002</v>
+        <v>7512599.6469999999</v>
       </c>
       <c r="E306" s="8">
-        <v>4692365.8650000002</v>
+        <v>4692356.6490000002</v>
       </c>
       <c r="F306" s="8">
         <v>649.31600000000003</v>
@@ -9647,13 +9653,13 @@
     </row>
     <row r="307" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C307" s="7">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D307" s="8">
-        <v>7512587.324</v>
+        <v>7512597.4289999995</v>
       </c>
       <c r="E307" s="8">
-        <v>4692369.04</v>
+        <v>4692358.7920000004</v>
       </c>
       <c r="F307" s="8">
         <v>649.31600000000003</v>
@@ -9670,13 +9676,13 @@
     </row>
     <row r="308" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C308" s="7">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D308" s="8">
-        <v>7512587.1380000003</v>
+        <v>7512597.2189999996</v>
       </c>
       <c r="E308" s="8">
-        <v>4692368.8679999998</v>
+        <v>4692358.602</v>
       </c>
       <c r="F308" s="8">
         <v>649.31600000000003</v>
@@ -9693,13 +9699,13 @@
     </row>
     <row r="309" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C309" s="7">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D309" s="8">
-        <v>7512583.1100000003</v>
+        <v>7512594.8600000003</v>
       </c>
       <c r="E309" s="8">
-        <v>4692372.9939999999</v>
+        <v>4692360.8990000002</v>
       </c>
       <c r="F309" s="8">
         <v>649.31600000000003</v>
@@ -9716,13 +9722,13 @@
     </row>
     <row r="310" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C310" s="7">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D310" s="8">
-        <v>7512594.4759999998</v>
+        <v>7512595.0539999995</v>
       </c>
       <c r="E310" s="8">
-        <v>4692384.176</v>
+        <v>4692361.1160000004</v>
       </c>
       <c r="F310" s="8">
         <v>649.31600000000003</v>
@@ -9739,13 +9745,13 @@
     </row>
     <row r="311" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C311" s="7">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D311" s="8">
-        <v>7512602.9859999996</v>
+        <v>7512592.6979999999</v>
       </c>
       <c r="E311" s="8">
-        <v>4692375.426</v>
+        <v>4692363.551</v>
       </c>
       <c r="F311" s="8">
         <v>649.31600000000003</v>
@@ -9761,16 +9767,16 @@
       </c>
     </row>
     <row r="312" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C312" s="7">
-        <v>242</v>
-      </c>
-      <c r="D312" s="8">
-        <v>7512602.0630000001</v>
-      </c>
-      <c r="E312" s="8">
-        <v>4692374.4570000004</v>
-      </c>
-      <c r="F312" s="8">
+      <c r="C312" s="11">
+        <v>252</v>
+      </c>
+      <c r="D312" s="12">
+        <v>7512592.4649999999</v>
+      </c>
+      <c r="E312" s="12">
+        <v>4692363.3540000003</v>
+      </c>
+      <c r="F312" s="12">
         <v>649.31600000000003</v>
       </c>
       <c r="G312" s="9" t="s">
@@ -9784,16 +9790,16 @@
       </c>
     </row>
     <row r="313" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C313" s="7">
-        <v>243</v>
-      </c>
-      <c r="D313" s="8">
-        <v>7512606.727</v>
-      </c>
-      <c r="E313" s="8">
-        <v>4692369.909</v>
-      </c>
-      <c r="F313" s="8">
+      <c r="C313" s="11">
+        <v>486</v>
+      </c>
+      <c r="D313" s="12">
+        <v>7512590.25</v>
+      </c>
+      <c r="E313" s="12">
+        <v>4692365.6370000001</v>
+      </c>
+      <c r="F313" s="12">
         <v>649.31600000000003</v>
       </c>
       <c r="G313" s="9" t="s">
@@ -9806,113 +9812,87 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C314" s="7">
-        <v>244</v>
-      </c>
-      <c r="D314" s="8">
-        <v>7512607.801</v>
-      </c>
-      <c r="E314" s="8">
-        <v>4692370.9210000001</v>
-      </c>
-      <c r="F314" s="8">
+    <row r="314" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C314" s="15">
+        <v>222</v>
+      </c>
+      <c r="D314" s="16">
+        <v>7512602.2850000001</v>
+      </c>
+      <c r="E314" s="16">
+        <v>4692370.375</v>
+      </c>
+      <c r="F314" s="16">
         <v>649.31600000000003</v>
       </c>
-      <c r="G314" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H314" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I314" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="315" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C315" s="7">
-        <v>245</v>
-      </c>
-      <c r="D315" s="8">
-        <v>7512610.8650000002</v>
-      </c>
-      <c r="E315" s="8">
-        <v>4692367.8140000002</v>
-      </c>
-      <c r="F315" s="8">
-        <v>649.31600000000003</v>
-      </c>
-      <c r="G315" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H315" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I315" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="316" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C316" s="7">
-        <v>246</v>
-      </c>
-      <c r="D316" s="8">
-        <v>7512599.6469999999</v>
-      </c>
-      <c r="E316" s="8">
-        <v>4692356.6490000002</v>
-      </c>
-      <c r="F316" s="8">
-        <v>649.31600000000003</v>
-      </c>
-      <c r="G316" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H316" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I316" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="317" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C317" s="7">
-        <v>247</v>
-      </c>
-      <c r="D317" s="8">
-        <v>7512597.4289999995</v>
-      </c>
-      <c r="E317" s="8">
-        <v>4692358.7920000004</v>
-      </c>
-      <c r="F317" s="8">
-        <v>649.31600000000003</v>
-      </c>
-      <c r="G317" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H317" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I317" s="14" t="s">
-        <v>12</v>
+      <c r="G314" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="H314" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I314" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C315" s="19"/>
+      <c r="D315" s="20"/>
+      <c r="E315" s="20"/>
+      <c r="F315" s="20"/>
+      <c r="G315" s="19"/>
+      <c r="H315" s="19"/>
+      <c r="I315" s="3"/>
+    </row>
+    <row r="316" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C316" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D316" s="59"/>
+      <c r="E316" s="59"/>
+      <c r="F316" s="59"/>
+      <c r="G316" s="59"/>
+      <c r="H316" s="59"/>
+      <c r="I316" s="60"/>
+    </row>
+    <row r="317" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C317" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D317" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E317" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F317" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G317" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H317" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I317" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C318" s="7">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="D318" s="8">
-        <v>7512597.2189999996</v>
+        <v>7512590.25</v>
       </c>
       <c r="E318" s="8">
-        <v>4692358.602</v>
+        <v>4692365.6370000001</v>
       </c>
       <c r="F318" s="8">
-        <v>649.31600000000003</v>
+        <v>655.28200000000004</v>
       </c>
       <c r="G318" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H318" s="13" t="s">
         <v>11</v>
@@ -9923,19 +9903,19 @@
     </row>
     <row r="319" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C319" s="7">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="D319" s="8">
-        <v>7512594.8600000003</v>
+        <v>7512590.4390000002</v>
       </c>
       <c r="E319" s="8">
-        <v>4692360.8990000002</v>
+        <v>4692365.8650000002</v>
       </c>
       <c r="F319" s="8">
-        <v>649.31600000000003</v>
+        <v>655.28200000000004</v>
       </c>
       <c r="G319" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H319" s="13" t="s">
         <v>11</v>
@@ -9946,19 +9926,19 @@
     </row>
     <row r="320" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C320" s="7">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="D320" s="8">
-        <v>7512595.0539999995</v>
+        <v>7512587.324</v>
       </c>
       <c r="E320" s="8">
-        <v>4692361.1160000004</v>
+        <v>4692369.04</v>
       </c>
       <c r="F320" s="8">
-        <v>649.31600000000003</v>
+        <v>655.28200000000004</v>
       </c>
       <c r="G320" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H320" s="13" t="s">
         <v>11</v>
@@ -9969,19 +9949,19 @@
     </row>
     <row r="321" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C321" s="7">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="D321" s="8">
-        <v>7512592.6979999999</v>
+        <v>7512587.1380000003</v>
       </c>
       <c r="E321" s="8">
-        <v>4692363.551</v>
+        <v>4692368.8679999998</v>
       </c>
       <c r="F321" s="8">
-        <v>649.31600000000003</v>
+        <v>655.28200000000004</v>
       </c>
       <c r="G321" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H321" s="13" t="s">
         <v>11</v>
@@ -9991,20 +9971,20 @@
       </c>
     </row>
     <row r="322" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C322" s="11">
-        <v>252</v>
-      </c>
-      <c r="D322" s="12">
-        <v>7512592.4649999999</v>
-      </c>
-      <c r="E322" s="12">
-        <v>4692363.3540000003</v>
-      </c>
-      <c r="F322" s="12">
-        <v>649.31600000000003</v>
+      <c r="C322" s="7">
+        <v>203</v>
+      </c>
+      <c r="D322" s="8">
+        <v>7512583.1100000003</v>
+      </c>
+      <c r="E322" s="8">
+        <v>4692372.9939999999</v>
+      </c>
+      <c r="F322" s="8">
+        <v>655.28200000000004</v>
       </c>
       <c r="G322" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H322" s="13" t="s">
         <v>11</v>
@@ -10014,20 +9994,20 @@
       </c>
     </row>
     <row r="323" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C323" s="11">
-        <v>486</v>
-      </c>
-      <c r="D323" s="12">
-        <v>7512590.25</v>
-      </c>
-      <c r="E323" s="12">
-        <v>4692365.6370000001</v>
-      </c>
-      <c r="F323" s="12">
-        <v>649.31600000000003</v>
+      <c r="C323" s="7">
+        <v>204</v>
+      </c>
+      <c r="D323" s="8">
+        <v>7512594.4759999998</v>
+      </c>
+      <c r="E323" s="8">
+        <v>4692384.176</v>
+      </c>
+      <c r="F323" s="8">
+        <v>655.28200000000004</v>
       </c>
       <c r="G323" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H323" s="13" t="s">
         <v>11</v>
@@ -10036,81 +10016,107 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C324" s="15">
-        <v>222</v>
-      </c>
-      <c r="D324" s="16">
-        <v>7512602.2850000001</v>
-      </c>
-      <c r="E324" s="16">
-        <v>4692370.375</v>
-      </c>
-      <c r="F324" s="16">
-        <v>649.31600000000003</v>
-      </c>
-      <c r="G324" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="H324" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I324" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="325" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C325" s="19"/>
-      <c r="D325" s="20"/>
-      <c r="E325" s="20"/>
-      <c r="F325" s="20"/>
-      <c r="G325" s="19"/>
-      <c r="H325" s="19"/>
-      <c r="I325" s="3"/>
-    </row>
-    <row r="326" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C326" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="D326" s="59"/>
-      <c r="E326" s="59"/>
-      <c r="F326" s="59"/>
-      <c r="G326" s="59"/>
-      <c r="H326" s="59"/>
-      <c r="I326" s="60"/>
-    </row>
-    <row r="327" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C327" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D327" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E327" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F327" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G327" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H327" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="I327" s="6" t="s">
-        <v>10</v>
+    <row r="324" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C324" s="7">
+        <v>205</v>
+      </c>
+      <c r="D324" s="8">
+        <v>7512602.9859999996</v>
+      </c>
+      <c r="E324" s="8">
+        <v>4692375.426</v>
+      </c>
+      <c r="F324" s="8">
+        <v>655.28200000000004</v>
+      </c>
+      <c r="G324" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H324" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I324" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C325" s="7">
+        <v>206</v>
+      </c>
+      <c r="D325" s="8">
+        <v>7512602.0630000001</v>
+      </c>
+      <c r="E325" s="8">
+        <v>4692374.4570000004</v>
+      </c>
+      <c r="F325" s="8">
+        <v>655.28200000000004</v>
+      </c>
+      <c r="G325" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H325" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I325" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C326" s="7">
+        <v>207</v>
+      </c>
+      <c r="D326" s="8">
+        <v>7512606.727</v>
+      </c>
+      <c r="E326" s="8">
+        <v>4692369.909</v>
+      </c>
+      <c r="F326" s="8">
+        <v>655.28200000000004</v>
+      </c>
+      <c r="G326" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H326" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I326" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C327" s="7">
+        <v>208</v>
+      </c>
+      <c r="D327" s="8">
+        <v>7512607.801</v>
+      </c>
+      <c r="E327" s="8">
+        <v>4692370.9210000001</v>
+      </c>
+      <c r="F327" s="8">
+        <v>655.28200000000004</v>
+      </c>
+      <c r="G327" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H327" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I327" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="328" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C328" s="7">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D328" s="8">
-        <v>7512590.25</v>
+        <v>7512610.8650000002</v>
       </c>
       <c r="E328" s="8">
-        <v>4692365.6370000001</v>
+        <v>4692367.8140000002</v>
       </c>
       <c r="F328" s="8">
         <v>655.28200000000004</v>
@@ -10127,13 +10133,13 @@
     </row>
     <row r="329" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C329" s="7">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D329" s="8">
-        <v>7512590.4390000002</v>
+        <v>7512599.6469999999</v>
       </c>
       <c r="E329" s="8">
-        <v>4692365.8650000002</v>
+        <v>4692356.6490000002</v>
       </c>
       <c r="F329" s="8">
         <v>655.28200000000004</v>
@@ -10150,13 +10156,13 @@
     </row>
     <row r="330" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C330" s="7">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D330" s="8">
-        <v>7512587.324</v>
+        <v>7512597.4289999995</v>
       </c>
       <c r="E330" s="8">
-        <v>4692369.04</v>
+        <v>4692358.7920000004</v>
       </c>
       <c r="F330" s="8">
         <v>655.28200000000004</v>
@@ -10173,13 +10179,13 @@
     </row>
     <row r="331" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C331" s="7">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D331" s="8">
-        <v>7512587.1380000003</v>
+        <v>7512597.2189999996</v>
       </c>
       <c r="E331" s="8">
-        <v>4692368.8679999998</v>
+        <v>4692358.602</v>
       </c>
       <c r="F331" s="8">
         <v>655.28200000000004</v>
@@ -10196,13 +10202,13 @@
     </row>
     <row r="332" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C332" s="7">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D332" s="8">
-        <v>7512583.1100000003</v>
+        <v>7512594.8600000003</v>
       </c>
       <c r="E332" s="8">
-        <v>4692372.9939999999</v>
+        <v>4692360.8990000002</v>
       </c>
       <c r="F332" s="8">
         <v>655.28200000000004</v>
@@ -10219,13 +10225,13 @@
     </row>
     <row r="333" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C333" s="7">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D333" s="8">
-        <v>7512594.4759999998</v>
+        <v>7512595.0539999995</v>
       </c>
       <c r="E333" s="8">
-        <v>4692384.176</v>
+        <v>4692361.1160000004</v>
       </c>
       <c r="F333" s="8">
         <v>655.28200000000004</v>
@@ -10241,16 +10247,16 @@
       </c>
     </row>
     <row r="334" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C334" s="7">
-        <v>205</v>
-      </c>
-      <c r="D334" s="8">
-        <v>7512602.9859999996</v>
-      </c>
-      <c r="E334" s="8">
-        <v>4692375.426</v>
-      </c>
-      <c r="F334" s="8">
+      <c r="C334" s="11">
+        <v>215</v>
+      </c>
+      <c r="D334" s="12">
+        <v>7512592.6979999999</v>
+      </c>
+      <c r="E334" s="12">
+        <v>4692363.551</v>
+      </c>
+      <c r="F334" s="12">
         <v>655.28200000000004</v>
       </c>
       <c r="G334" s="9" t="s">
@@ -10264,16 +10270,16 @@
       </c>
     </row>
     <row r="335" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C335" s="7">
-        <v>206</v>
-      </c>
-      <c r="D335" s="8">
-        <v>7512602.0630000001</v>
-      </c>
-      <c r="E335" s="8">
-        <v>4692374.4570000004</v>
-      </c>
-      <c r="F335" s="8">
+      <c r="C335" s="11">
+        <v>216</v>
+      </c>
+      <c r="D335" s="12">
+        <v>7512592.4649999999</v>
+      </c>
+      <c r="E335" s="12">
+        <v>4692363.3540000003</v>
+      </c>
+      <c r="F335" s="12">
         <v>655.28200000000004</v>
       </c>
       <c r="G335" s="9" t="s">
@@ -10286,340 +10292,110 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C336" s="7">
-        <v>207</v>
-      </c>
-      <c r="D336" s="8">
-        <v>7512606.727</v>
-      </c>
-      <c r="E336" s="8">
-        <v>4692369.909</v>
-      </c>
-      <c r="F336" s="8">
+    <row r="336" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C336" s="15">
+        <v>227</v>
+      </c>
+      <c r="D336" s="16">
+        <v>7512599.3940000003</v>
+      </c>
+      <c r="E336" s="16">
+        <v>4692367.8890000004</v>
+      </c>
+      <c r="F336" s="16">
         <v>655.28200000000004</v>
       </c>
-      <c r="G336" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H336" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I336" s="14" t="s">
+      <c r="G336" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H336" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I336" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C337" s="7">
-        <v>208</v>
-      </c>
-      <c r="D337" s="8">
-        <v>7512607.801</v>
-      </c>
-      <c r="E337" s="8">
-        <v>4692370.9210000001</v>
-      </c>
-      <c r="F337" s="8">
-        <v>655.28200000000004</v>
-      </c>
-      <c r="G337" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H337" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I337" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C338" s="7">
-        <v>209</v>
-      </c>
-      <c r="D338" s="8">
-        <v>7512610.8650000002</v>
-      </c>
-      <c r="E338" s="8">
-        <v>4692367.8140000002</v>
-      </c>
-      <c r="F338" s="8">
-        <v>655.28200000000004</v>
-      </c>
-      <c r="G338" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H338" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I338" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C339" s="7">
-        <v>210</v>
-      </c>
-      <c r="D339" s="8">
-        <v>7512599.6469999999</v>
-      </c>
-      <c r="E339" s="8">
-        <v>4692356.6490000002</v>
-      </c>
-      <c r="F339" s="8">
-        <v>655.28200000000004</v>
-      </c>
-      <c r="G339" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H339" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I339" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C340" s="7">
-        <v>211</v>
-      </c>
-      <c r="D340" s="8">
-        <v>7512597.4289999995</v>
-      </c>
-      <c r="E340" s="8">
-        <v>4692358.7920000004</v>
-      </c>
-      <c r="F340" s="8">
-        <v>655.28200000000004</v>
-      </c>
-      <c r="G340" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H340" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I340" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C341" s="7">
-        <v>212</v>
-      </c>
-      <c r="D341" s="8">
-        <v>7512597.2189999996</v>
-      </c>
-      <c r="E341" s="8">
-        <v>4692358.602</v>
-      </c>
-      <c r="F341" s="8">
-        <v>655.28200000000004</v>
-      </c>
-      <c r="G341" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H341" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I341" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C342" s="7">
-        <v>213</v>
-      </c>
-      <c r="D342" s="8">
-        <v>7512594.8600000003</v>
-      </c>
-      <c r="E342" s="8">
-        <v>4692360.8990000002</v>
-      </c>
-      <c r="F342" s="8">
-        <v>655.28200000000004</v>
-      </c>
-      <c r="G342" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H342" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I342" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C343" s="7">
-        <v>214</v>
-      </c>
-      <c r="D343" s="8">
-        <v>7512595.0539999995</v>
-      </c>
-      <c r="E343" s="8">
-        <v>4692361.1160000004</v>
-      </c>
-      <c r="F343" s="8">
-        <v>655.28200000000004</v>
-      </c>
-      <c r="G343" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H343" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I343" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C344" s="11">
-        <v>215</v>
-      </c>
-      <c r="D344" s="12">
-        <v>7512592.6979999999</v>
-      </c>
-      <c r="E344" s="12">
-        <v>4692363.551</v>
-      </c>
-      <c r="F344" s="12">
-        <v>655.28200000000004</v>
-      </c>
-      <c r="G344" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H344" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I344" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C345" s="11">
-        <v>216</v>
-      </c>
-      <c r="D345" s="12">
-        <v>7512592.4649999999</v>
-      </c>
-      <c r="E345" s="12">
-        <v>4692363.3540000003</v>
-      </c>
-      <c r="F345" s="12">
-        <v>655.28200000000004</v>
-      </c>
-      <c r="G345" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H345" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I345" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C346" s="15">
-        <v>227</v>
-      </c>
-      <c r="D346" s="16">
-        <v>7512599.3940000003</v>
-      </c>
-      <c r="E346" s="16">
-        <v>4692367.8890000004</v>
-      </c>
-      <c r="F346" s="16">
-        <v>655.28200000000004</v>
-      </c>
-      <c r="G346" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="H346" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I346" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C347" s="19"/>
-      <c r="D347" s="20"/>
-      <c r="E347" s="20"/>
-      <c r="F347" s="20"/>
-      <c r="G347" s="19"/>
-      <c r="H347" s="19"/>
-      <c r="I347" s="3"/>
-    </row>
-    <row r="348" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I348" s="3"/>
-    </row>
-    <row r="349" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
+      <c r="C337" s="19"/>
+      <c r="D337" s="20"/>
+      <c r="E337" s="20"/>
+      <c r="F337" s="20"/>
+      <c r="G337" s="19"/>
+      <c r="H337" s="19"/>
+      <c r="I337" s="3"/>
+    </row>
+    <row r="338" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I338" s="3"/>
+    </row>
+    <row r="339" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B349" s="2"/>
-      <c r="C349" s="2"/>
-      <c r="D349" s="2"/>
-      <c r="E349" s="64" t="s">
+      <c r="B339" s="2"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="2"/>
+      <c r="E339" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F349" s="65"/>
-      <c r="G349" s="66"/>
-      <c r="H349" s="67" t="s">
+      <c r="F339" s="65"/>
+      <c r="G339" s="66"/>
+      <c r="H339" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I349" s="68"/>
-      <c r="J349" s="71"/>
-      <c r="K349" s="72"/>
-    </row>
-    <row r="350" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="75" t="s">
+      <c r="I339" s="68"/>
+      <c r="J339" s="71"/>
+      <c r="K339" s="72"/>
+    </row>
+    <row r="340" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B350" s="76"/>
-      <c r="C350" s="76"/>
-      <c r="D350" s="77"/>
-      <c r="E350" s="78">
+      <c r="B340" s="76"/>
+      <c r="C340" s="76"/>
+      <c r="D340" s="77"/>
+      <c r="E340" s="78">
         <v>140</v>
       </c>
-      <c r="F350" s="79"/>
-      <c r="G350" s="80"/>
-      <c r="H350" s="69"/>
-      <c r="I350" s="70"/>
-      <c r="J350" s="73"/>
-      <c r="K350" s="74"/>
+      <c r="F340" s="79"/>
+      <c r="G340" s="80"/>
+      <c r="H340" s="69"/>
+      <c r="I340" s="70"/>
+      <c r="J340" s="73"/>
+      <c r="K340" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A293:K294"/>
-    <mergeCell ref="A295:K298"/>
-    <mergeCell ref="C300:I302"/>
-    <mergeCell ref="C304:I304"/>
-    <mergeCell ref="C326:I326"/>
-    <mergeCell ref="E290:G290"/>
-    <mergeCell ref="H290:I291"/>
-    <mergeCell ref="J290:K291"/>
-    <mergeCell ref="A291:D291"/>
-    <mergeCell ref="E291:G291"/>
-    <mergeCell ref="A232:K233"/>
-    <mergeCell ref="A234:K237"/>
-    <mergeCell ref="C239:I241"/>
-    <mergeCell ref="C243:I243"/>
-    <mergeCell ref="C257:I257"/>
-    <mergeCell ref="E230:G230"/>
-    <mergeCell ref="H230:I231"/>
-    <mergeCell ref="J230:K231"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="E231:G231"/>
-    <mergeCell ref="A184:K185"/>
-    <mergeCell ref="A186:K189"/>
-    <mergeCell ref="C191:I193"/>
-    <mergeCell ref="C195:I195"/>
-    <mergeCell ref="C209:I209"/>
-    <mergeCell ref="C161:I161"/>
-    <mergeCell ref="E181:G181"/>
-    <mergeCell ref="H181:I182"/>
-    <mergeCell ref="J181:K182"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="E182:G182"/>
+    <mergeCell ref="A283:K284"/>
+    <mergeCell ref="A285:K288"/>
+    <mergeCell ref="C290:I292"/>
+    <mergeCell ref="C294:I294"/>
+    <mergeCell ref="C316:I316"/>
+    <mergeCell ref="E280:G280"/>
+    <mergeCell ref="H280:I281"/>
+    <mergeCell ref="J280:K281"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="E281:G281"/>
+    <mergeCell ref="A222:K223"/>
+    <mergeCell ref="A224:K227"/>
+    <mergeCell ref="C229:I231"/>
+    <mergeCell ref="C233:I233"/>
+    <mergeCell ref="C247:I247"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="H220:I221"/>
+    <mergeCell ref="J220:K221"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="E221:G221"/>
+    <mergeCell ref="A174:K175"/>
+    <mergeCell ref="A176:K179"/>
+    <mergeCell ref="C181:I183"/>
+    <mergeCell ref="C185:I185"/>
+    <mergeCell ref="C199:I199"/>
+    <mergeCell ref="C151:I151"/>
+    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="H171:I172"/>
+    <mergeCell ref="J171:K172"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="E172:G172"/>
     <mergeCell ref="C53:I53"/>
     <mergeCell ref="C83:I83"/>
     <mergeCell ref="C44:I44"/>
@@ -10635,24 +10411,24 @@
     <mergeCell ref="A70:D70"/>
     <mergeCell ref="E70:G70"/>
     <mergeCell ref="A72:K73"/>
-    <mergeCell ref="E349:G349"/>
-    <mergeCell ref="H349:I350"/>
-    <mergeCell ref="J349:K350"/>
-    <mergeCell ref="A350:D350"/>
-    <mergeCell ref="E350:G350"/>
-    <mergeCell ref="A136:K137"/>
-    <mergeCell ref="A138:K141"/>
-    <mergeCell ref="C143:I145"/>
-    <mergeCell ref="C147:I147"/>
+    <mergeCell ref="E339:G339"/>
+    <mergeCell ref="H339:I340"/>
+    <mergeCell ref="J339:K340"/>
+    <mergeCell ref="A340:D340"/>
+    <mergeCell ref="E340:G340"/>
+    <mergeCell ref="A126:K127"/>
+    <mergeCell ref="A128:K131"/>
+    <mergeCell ref="C133:I135"/>
+    <mergeCell ref="C137:I137"/>
     <mergeCell ref="A74:K77"/>
     <mergeCell ref="C79:I81"/>
     <mergeCell ref="C93:I93"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="H133:I134"/>
-    <mergeCell ref="J133:K134"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="E134:G134"/>
+    <mergeCell ref="C107:I107"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="H123:I124"/>
+    <mergeCell ref="J123:K124"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="E124:G124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
